--- a/Jogos_do_Dia/2023-12-10_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2023-12-10_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -691,13 +691,13 @@
         <v>8</v>
       </c>
       <c r="J2" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="K2" t="n">
-        <v>3.9</v>
+        <v>5.05</v>
       </c>
       <c r="L2" t="n">
-        <v>8</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="M2" t="n">
         <v>1.4</v>
@@ -718,10 +718,10 @@
         <v>3.5</v>
       </c>
       <c r="S2" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="T2" t="n">
         <v>2</v>
-      </c>
-      <c r="T2" t="n">
-        <v>1.67</v>
       </c>
       <c r="U2" t="n">
         <v>2.38</v>
@@ -830,13 +830,13 @@
         <v>3.2</v>
       </c>
       <c r="J3" t="n">
-        <v>2.6</v>
+        <v>2.66</v>
       </c>
       <c r="K3" t="n">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="L3" t="n">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="M3" t="n">
         <v>1.4</v>
@@ -857,10 +857,10 @@
         <v>3.44</v>
       </c>
       <c r="S3" t="n">
-        <v>1.9</v>
+        <v>1.71</v>
       </c>
       <c r="T3" t="n">
-        <v>1.95</v>
+        <v>2.14</v>
       </c>
       <c r="U3" t="n">
         <v>1.73</v>
@@ -969,7 +969,7 @@
         <v>3.1</v>
       </c>
       <c r="J4" t="n">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="K4" t="n">
         <v>3.25</v>
@@ -996,10 +996,10 @@
         <v>3.5</v>
       </c>
       <c r="S4" t="n">
-        <v>1.89</v>
+        <v>1.85</v>
       </c>
       <c r="T4" t="n">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="U4" t="n">
         <v>1.7</v>
@@ -1108,13 +1108,13 @@
         <v>3.6</v>
       </c>
       <c r="J5" t="n">
-        <v>2.15</v>
+        <v>2.09</v>
       </c>
       <c r="K5" t="n">
-        <v>3.5</v>
+        <v>3.35</v>
       </c>
       <c r="L5" t="n">
-        <v>3.2</v>
+        <v>3.37</v>
       </c>
       <c r="M5" t="n">
         <v>1.33</v>
@@ -1135,10 +1135,10 @@
         <v>4.27</v>
       </c>
       <c r="S5" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="T5" t="n">
-        <v>2.1</v>
+        <v>2.11</v>
       </c>
       <c r="U5" t="n">
         <v>1.62</v>
@@ -1247,13 +1247,13 @@
         <v>4.8</v>
       </c>
       <c r="J6" t="n">
-        <v>1.91</v>
+        <v>2.23</v>
       </c>
       <c r="K6" t="n">
-        <v>3.1</v>
+        <v>3.26</v>
       </c>
       <c r="L6" t="n">
-        <v>4</v>
+        <v>3.31</v>
       </c>
       <c r="M6" t="n">
         <v>1.5</v>
@@ -1274,10 +1274,10 @@
         <v>2.75</v>
       </c>
       <c r="S6" t="n">
-        <v>2.25</v>
+        <v>2.28</v>
       </c>
       <c r="T6" t="n">
-        <v>1.53</v>
+        <v>1.62</v>
       </c>
       <c r="U6" t="n">
         <v>2</v>
@@ -1386,13 +1386,13 @@
         <v>3</v>
       </c>
       <c r="J7" t="n">
-        <v>3.1</v>
+        <v>3.44</v>
       </c>
       <c r="K7" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="L7" t="n">
-        <v>2.35</v>
+        <v>2.25</v>
       </c>
       <c r="M7" t="n">
         <v>1.44</v>
@@ -1413,10 +1413,10 @@
         <v>3.2</v>
       </c>
       <c r="S7" t="n">
-        <v>2.05</v>
+        <v>2.06</v>
       </c>
       <c r="T7" t="n">
-        <v>1.7</v>
+        <v>1.76</v>
       </c>
       <c r="U7" t="n">
         <v>1.91</v>
@@ -1528,10 +1528,10 @@
         <v>2.55</v>
       </c>
       <c r="K8" t="n">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="L8" t="n">
-        <v>2.63</v>
+        <v>2.6</v>
       </c>
       <c r="M8" t="n">
         <v>1.4</v>
@@ -1552,10 +1552,10 @@
         <v>3.4</v>
       </c>
       <c r="S8" t="n">
-        <v>1.85</v>
+        <v>2.4</v>
       </c>
       <c r="T8" t="n">
-        <v>1.85</v>
+        <v>1.5</v>
       </c>
       <c r="U8" t="n">
         <v>1.7</v>
@@ -1664,13 +1664,13 @@
         <v>4.75</v>
       </c>
       <c r="J9" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="K9" t="n">
-        <v>3.5</v>
+        <v>3.82</v>
       </c>
       <c r="L9" t="n">
-        <v>4.75</v>
+        <v>4.72</v>
       </c>
       <c r="M9" t="n">
         <v>1.44</v>
@@ -1691,10 +1691,10 @@
         <v>3.1</v>
       </c>
       <c r="S9" t="n">
-        <v>2.05</v>
+        <v>1.87</v>
       </c>
       <c r="T9" t="n">
-        <v>1.7</v>
+        <v>1.93</v>
       </c>
       <c r="U9" t="n">
         <v>1.95</v>
@@ -1803,13 +1803,13 @@
         <v>1.91</v>
       </c>
       <c r="J10" t="n">
-        <v>7.5</v>
+        <v>5.44</v>
       </c>
       <c r="K10" t="n">
-        <v>4.6</v>
+        <v>5.4</v>
       </c>
       <c r="L10" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="M10" t="n">
         <v>1.3</v>
@@ -1830,10 +1830,10 @@
         <v>4.75</v>
       </c>
       <c r="S10" t="n">
-        <v>1.57</v>
+        <v>1.56</v>
       </c>
       <c r="T10" t="n">
-        <v>2.25</v>
+        <v>2.22</v>
       </c>
       <c r="U10" t="n">
         <v>1.95</v>
@@ -1942,13 +1942,13 @@
         <v>3.2</v>
       </c>
       <c r="J11" t="n">
-        <v>2.88</v>
+        <v>2.97</v>
       </c>
       <c r="K11" t="n">
-        <v>3</v>
+        <v>3.15</v>
       </c>
       <c r="L11" t="n">
-        <v>2.45</v>
+        <v>2.38</v>
       </c>
       <c r="M11" t="n">
         <v>1.48</v>
@@ -1969,10 +1969,10 @@
         <v>2.63</v>
       </c>
       <c r="S11" t="n">
-        <v>2.1</v>
+        <v>2.09</v>
       </c>
       <c r="T11" t="n">
-        <v>1.65</v>
+        <v>1.63</v>
       </c>
       <c r="U11" t="n">
         <v>1.93</v>
@@ -2038,10 +2038,10 @@
         <v>1.26</v>
       </c>
       <c r="AP11" t="n">
-        <v>0</v>
+        <v>3.9</v>
       </c>
       <c r="AQ11" t="n">
-        <v>0</v>
+        <v>1.23</v>
       </c>
     </row>
     <row r="12">
@@ -2081,13 +2081,13 @@
         <v>5</v>
       </c>
       <c r="J12" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="K12" t="n">
-        <v>3.75</v>
+        <v>3.65</v>
       </c>
       <c r="L12" t="n">
-        <v>5</v>
+        <v>4.7</v>
       </c>
       <c r="M12" t="n">
         <v>1.39</v>
@@ -2108,10 +2108,10 @@
         <v>3.4</v>
       </c>
       <c r="S12" t="n">
-        <v>1.86</v>
+        <v>1.85</v>
       </c>
       <c r="T12" t="n">
-        <v>1.9</v>
+        <v>1.76</v>
       </c>
       <c r="U12" t="n">
         <v>1.87</v>
@@ -2202,37 +2202,37 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Hansa Rostock</t>
+          <t>Elversberg</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Schalke 04</t>
+          <t>Nürnberg</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>3.4</v>
+        <v>2.63</v>
       </c>
       <c r="H13" t="n">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="I13" t="n">
-        <v>2.88</v>
+        <v>3.5</v>
       </c>
       <c r="J13" t="n">
-        <v>2.75</v>
+        <v>2.37</v>
       </c>
       <c r="K13" t="n">
-        <v>3.25</v>
+        <v>3.86</v>
       </c>
       <c r="L13" t="n">
-        <v>2.25</v>
+        <v>2.69</v>
       </c>
       <c r="M13" t="n">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="N13" t="n">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="O13" t="n">
         <v>1.02</v>
@@ -2241,85 +2241,85 @@
         <v>10</v>
       </c>
       <c r="Q13" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="R13" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="S13" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="T13" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="U13" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="V13" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="W13" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X13" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>8</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="AH13" t="n">
         <v>1.18</v>
       </c>
-      <c r="R13" t="n">
-        <v>4.15</v>
-      </c>
-      <c r="S13" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="T13" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="U13" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="V13" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="W13" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="X13" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="Y13" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="Z13" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="AA13" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="AB13" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="AC13" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="AD13" t="n">
-        <v>2.84</v>
-      </c>
-      <c r="AE13" t="n">
+      <c r="AI13" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AL13" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AO13" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AP13" t="n">
         <v>2.3</v>
       </c>
-      <c r="AF13" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AG13" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="AH13" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="AI13" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="AJ13" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="AK13" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="AL13" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="AM13" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="AN13" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="AO13" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="AP13" t="n">
-        <v>2.5</v>
-      </c>
       <c r="AQ13" t="n">
-        <v>1.43</v>
+        <v>1.51</v>
       </c>
     </row>
     <row r="14">
@@ -2341,94 +2341,94 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Fortuna Düsseldorf</t>
+          <t>Hansa Rostock</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Holstein Kiel</t>
+          <t>Schalke 04</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>2.5</v>
+        <v>3.4</v>
       </c>
       <c r="H14" t="n">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
       <c r="I14" t="n">
-        <v>3.75</v>
+        <v>2.88</v>
       </c>
       <c r="J14" t="n">
-        <v>1.95</v>
+        <v>2.65</v>
       </c>
       <c r="K14" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="L14" t="n">
-        <v>3.2</v>
+        <v>2.38</v>
       </c>
       <c r="M14" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="N14" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="O14" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="P14" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="R14" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="S14" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="T14" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="U14" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="V14" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="W14" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="X14" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="Z14" t="n">
         <v>1.25</v>
       </c>
-      <c r="N14" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="O14" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="P14" t="n">
-        <v>11</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="R14" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="S14" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="T14" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="U14" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="V14" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="W14" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="X14" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="Y14" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="Z14" t="n">
-        <v>1.75</v>
-      </c>
       <c r="AA14" t="n">
-        <v>2.29</v>
+        <v>0.5</v>
       </c>
       <c r="AB14" t="n">
-        <v>1.77</v>
+        <v>1.52</v>
       </c>
       <c r="AC14" t="n">
-        <v>1.4</v>
+        <v>1.32</v>
       </c>
       <c r="AD14" t="n">
-        <v>3.17</v>
+        <v>2.84</v>
       </c>
       <c r="AE14" t="n">
-        <v>1.59</v>
+        <v>2.3</v>
       </c>
       <c r="AF14" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="AG14" t="n">
-        <v>2.78</v>
+        <v>1.88</v>
       </c>
       <c r="AH14" t="n">
         <v>1.15</v>
@@ -2449,10 +2449,10 @@
         <v>2.25</v>
       </c>
       <c r="AN14" t="n">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="AO14" t="n">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="AP14" t="n">
         <v>2.5</v>
@@ -2464,7 +2464,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Germany 2. Bundesliga</t>
+          <t>Belgium Pro League</t>
         </is>
       </c>
       <c r="B15" s="2" t="n">
@@ -2476,134 +2476,134 @@
         </is>
       </c>
       <c r="D15" t="n">
+        <v>17</v>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>KV Mechelen</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Club Brugge</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="H15" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="I15" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="J15" t="n">
+        <v>4.52</v>
+      </c>
+      <c r="K15" t="n">
+        <v>4.38</v>
+      </c>
+      <c r="L15" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="M15" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="N15" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="O15" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="P15" t="n">
         <v>16</v>
       </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>Elversberg</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>Nürnberg</t>
-        </is>
-      </c>
-      <c r="G15" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="H15" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="I15" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="J15" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="K15" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="L15" t="n">
-        <v>2.87</v>
-      </c>
-      <c r="M15" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="N15" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="O15" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="P15" t="n">
-        <v>10</v>
-      </c>
       <c r="Q15" t="n">
-        <v>1.17</v>
+        <v>1.19</v>
       </c>
       <c r="R15" t="n">
-        <v>4.5</v>
+        <v>4.68</v>
       </c>
       <c r="S15" t="n">
-        <v>1.53</v>
+        <v>1.62</v>
       </c>
       <c r="T15" t="n">
-        <v>2.25</v>
+        <v>2.21</v>
       </c>
       <c r="U15" t="n">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="V15" t="n">
-        <v>2.5</v>
+        <v>2.33</v>
       </c>
       <c r="W15" t="n">
-        <v>1.36</v>
+        <v>2.2</v>
       </c>
       <c r="X15" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="Y15" t="n">
-        <v>1.67</v>
+        <v>1.12</v>
       </c>
       <c r="Z15" t="n">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AA15" t="n">
         <v>1.25</v>
       </c>
       <c r="AB15" t="n">
-        <v>1.36</v>
+        <v>1.57</v>
       </c>
       <c r="AC15" t="n">
-        <v>1.47</v>
+        <v>1.59</v>
       </c>
       <c r="AD15" t="n">
-        <v>2.83</v>
+        <v>3.16</v>
       </c>
       <c r="AE15" t="n">
-        <v>1.85</v>
+        <v>3</v>
       </c>
       <c r="AF15" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AG15" t="n">
-        <v>2.28</v>
+        <v>1.53</v>
       </c>
       <c r="AH15" t="n">
         <v>1.18</v>
       </c>
       <c r="AI15" t="n">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="AJ15" t="n">
-        <v>1.24</v>
+        <v>1.38</v>
       </c>
       <c r="AK15" t="n">
-        <v>3.5</v>
+        <v>2.88</v>
       </c>
       <c r="AL15" t="n">
-        <v>1.44</v>
+        <v>1.67</v>
       </c>
       <c r="AM15" t="n">
-        <v>2.45</v>
+        <v>2.12</v>
       </c>
       <c r="AN15" t="n">
-        <v>1.77</v>
+        <v>2.12</v>
       </c>
       <c r="AO15" t="n">
-        <v>1.87</v>
+        <v>1.66</v>
       </c>
       <c r="AP15" t="n">
-        <v>2.3</v>
+        <v>2.8</v>
       </c>
       <c r="AQ15" t="n">
-        <v>1.51</v>
+        <v>1.36</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Belgium Pro League</t>
+          <t>Germany 2. Bundesliga</t>
         </is>
       </c>
       <c r="B16" s="2" t="n">
@@ -2615,134 +2615,134 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>KV Mechelen</t>
+          <t>Fortuna Düsseldorf</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Club Brugge</t>
+          <t>Holstein Kiel</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>4.6</v>
+        <v>2.5</v>
       </c>
       <c r="H16" t="n">
-        <v>2.35</v>
+        <v>2.5</v>
       </c>
       <c r="I16" t="n">
-        <v>2.15</v>
+        <v>3.75</v>
       </c>
       <c r="J16" t="n">
-        <v>4.33</v>
+        <v>1.89</v>
       </c>
       <c r="K16" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="L16" t="n">
-        <v>1.6</v>
+        <v>3.55</v>
       </c>
       <c r="M16" t="n">
         <v>1.25</v>
       </c>
       <c r="N16" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="O16" t="n">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="P16" t="n">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.19</v>
+        <v>1.13</v>
       </c>
       <c r="R16" t="n">
-        <v>4.68</v>
+        <v>4.9</v>
       </c>
       <c r="S16" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="T16" t="n">
-        <v>2.2</v>
+        <v>2.48</v>
       </c>
       <c r="U16" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="V16" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="W16" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="X16" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>3.17</v>
+      </c>
+      <c r="AE16" t="n">
         <v>1.59</v>
-      </c>
-      <c r="V16" t="n">
-        <v>2.33</v>
-      </c>
-      <c r="W16" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="X16" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="Y16" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="Z16" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="AA16" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="AB16" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="AC16" t="n">
-        <v>1.59</v>
-      </c>
-      <c r="AD16" t="n">
-        <v>3.16</v>
-      </c>
-      <c r="AE16" t="n">
-        <v>3</v>
       </c>
       <c r="AF16" t="n">
         <v>8.5</v>
       </c>
       <c r="AG16" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="AJ16" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AK16" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AL16" t="n">
         <v>1.53</v>
       </c>
-      <c r="AH16" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="AI16" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="AJ16" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="AK16" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="AL16" t="n">
-        <v>1.67</v>
-      </c>
       <c r="AM16" t="n">
-        <v>2.12</v>
+        <v>2.25</v>
       </c>
       <c r="AN16" t="n">
-        <v>2.12</v>
+        <v>1.85</v>
       </c>
       <c r="AO16" t="n">
-        <v>1.66</v>
+        <v>1.95</v>
       </c>
       <c r="AP16" t="n">
-        <v>2.8</v>
+        <v>2.5</v>
       </c>
       <c r="AQ16" t="n">
-        <v>1.36</v>
+        <v>1.43</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Spain La Liga</t>
+          <t>Turkey Süper Lig</t>
         </is>
       </c>
       <c r="B17" s="2" t="n">
@@ -2754,134 +2754,134 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Atlético Madrid</t>
+          <t>İstanbul Başakşehir</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Almería</t>
+          <t>Hatayspor</t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>1.62</v>
+        <v>2.6</v>
       </c>
       <c r="H17" t="n">
-        <v>3</v>
+        <v>2.2</v>
       </c>
       <c r="I17" t="n">
-        <v>8.5</v>
+        <v>4.33</v>
       </c>
       <c r="J17" t="n">
-        <v>1.25</v>
+        <v>2.28</v>
       </c>
       <c r="K17" t="n">
-        <v>6</v>
+        <v>3.52</v>
       </c>
       <c r="L17" t="n">
-        <v>12</v>
+        <v>3.02</v>
       </c>
       <c r="M17" t="n">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="N17" t="n">
-        <v>4.33</v>
+        <v>2.75</v>
       </c>
       <c r="O17" t="n">
-        <v>1.02</v>
+        <v>1.04</v>
       </c>
       <c r="P17" t="n">
-        <v>30</v>
+        <v>10.06</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.11</v>
+        <v>1.29</v>
       </c>
       <c r="R17" t="n">
-        <v>6.5</v>
+        <v>3.44</v>
       </c>
       <c r="S17" t="n">
-        <v>1.4</v>
+        <v>1.82</v>
       </c>
       <c r="T17" t="n">
-        <v>2.9</v>
+        <v>1.99</v>
       </c>
       <c r="U17" t="n">
         <v>1.8</v>
       </c>
       <c r="V17" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="W17" t="n">
-        <v>1.05</v>
+        <v>1.3</v>
       </c>
       <c r="X17" t="n">
-        <v>1.11</v>
+        <v>1.33</v>
       </c>
       <c r="Y17" t="n">
-        <v>4</v>
+        <v>1.9</v>
       </c>
       <c r="Z17" t="n">
-        <v>3</v>
+        <v>1.17</v>
       </c>
       <c r="AA17" t="n">
-        <v>0.14</v>
+        <v>0.86</v>
       </c>
       <c r="AB17" t="n">
-        <v>1.82</v>
+        <v>1.19</v>
       </c>
       <c r="AC17" t="n">
-        <v>1.07</v>
+        <v>1.2</v>
       </c>
       <c r="AD17" t="n">
-        <v>2.89</v>
+        <v>2.39</v>
       </c>
       <c r="AE17" t="n">
-        <v>1.28</v>
+        <v>1.6</v>
       </c>
       <c r="AF17" t="n">
-        <v>10</v>
+        <v>9.1</v>
       </c>
       <c r="AG17" t="n">
-        <v>4.75</v>
+        <v>2.79</v>
       </c>
       <c r="AH17" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="AI17" t="n">
         <v>3.5</v>
       </c>
       <c r="AJ17" t="n">
-        <v>1.42</v>
+        <v>1.47</v>
       </c>
       <c r="AK17" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="AL17" t="n">
-        <v>1.72</v>
+        <v>1.95</v>
       </c>
       <c r="AM17" t="n">
-        <v>1.98</v>
+        <v>1.85</v>
       </c>
       <c r="AN17" t="n">
-        <v>2.12</v>
+        <v>2.4</v>
       </c>
       <c r="AO17" t="n">
-        <v>1.61</v>
+        <v>1.47</v>
       </c>
       <c r="AP17" t="n">
-        <v>2.7</v>
+        <v>3.3</v>
       </c>
       <c r="AQ17" t="n">
-        <v>1.36</v>
+        <v>1.26</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Bulgaria First League</t>
+          <t>Turkey Süper Lig</t>
         </is>
       </c>
       <c r="B18" s="2" t="n">
@@ -2893,134 +2893,134 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Botev Plovdiv</t>
+          <t>Kayserispor</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Hebar 1918</t>
+          <t>Pendikspor</t>
         </is>
       </c>
       <c r="G18" t="n">
-        <v>1.83</v>
+        <v>2.5</v>
       </c>
       <c r="H18" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="I18" t="n">
-        <v>8.5</v>
+        <v>4</v>
       </c>
       <c r="J18" t="n">
-        <v>1.4</v>
+        <v>1.85</v>
       </c>
       <c r="K18" t="n">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="L18" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M18" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="N18" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="O18" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="P18" t="n">
-        <v>11.5</v>
+        <v>15</v>
       </c>
       <c r="Q18" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="R18" t="n">
+        <v>4.22</v>
+      </c>
+      <c r="S18" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="T18" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="U18" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="V18" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="W18" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="X18" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="AH18" t="n">
         <v>1.25</v>
       </c>
-      <c r="R18" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="S18" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="T18" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="U18" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="V18" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="W18" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="X18" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="Y18" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="Z18" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="AA18" t="n">
-        <v>0.78</v>
-      </c>
-      <c r="AB18" t="n">
-        <v>1.94</v>
-      </c>
-      <c r="AC18" t="n">
-        <v>0.96</v>
-      </c>
-      <c r="AD18" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="AE18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH18" t="n">
-        <v>0</v>
-      </c>
       <c r="AI18" t="n">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="AJ18" t="n">
-        <v>0</v>
+        <v>1.47</v>
       </c>
       <c r="AK18" t="n">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="AL18" t="n">
-        <v>0</v>
+        <v>1.95</v>
       </c>
       <c r="AM18" t="n">
-        <v>0</v>
+        <v>1.85</v>
       </c>
       <c r="AN18" t="n">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="AO18" t="n">
-        <v>0</v>
+        <v>1.47</v>
       </c>
       <c r="AP18" t="n">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="AQ18" t="n">
-        <v>0</v>
+        <v>1.26</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Spain Segunda División</t>
+          <t>Spain La Liga</t>
         </is>
       </c>
       <c r="B19" s="2" t="n">
@@ -3032,134 +3032,134 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Elche CF</t>
+          <t>Atlético Madrid</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>FC Cartagena</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="G19" t="n">
-        <v>2.35</v>
+        <v>1.62</v>
       </c>
       <c r="H19" t="n">
-        <v>2.05</v>
+        <v>3</v>
       </c>
       <c r="I19" t="n">
-        <v>4.9</v>
+        <v>8.5</v>
       </c>
       <c r="J19" t="n">
-        <v>1.67</v>
+        <v>1.26</v>
       </c>
       <c r="K19" t="n">
-        <v>3.4</v>
+        <v>6</v>
       </c>
       <c r="L19" t="n">
-        <v>5.2</v>
+        <v>10.5</v>
       </c>
       <c r="M19" t="n">
-        <v>1.44</v>
+        <v>1.2</v>
       </c>
       <c r="N19" t="n">
-        <v>2.6</v>
+        <v>4.33</v>
       </c>
       <c r="O19" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="P19" t="n">
+        <v>30</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="R19" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="S19" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="T19" t="n">
+        <v>3.09</v>
+      </c>
+      <c r="U19" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="V19" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="W19" t="n">
         <v>1.05</v>
       </c>
-      <c r="P19" t="n">
-        <v>8</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="R19" t="n">
+      <c r="X19" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>4</v>
+      </c>
+      <c r="Z19" t="n">
         <v>3</v>
       </c>
-      <c r="S19" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="T19" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="U19" t="n">
-        <v>2</v>
-      </c>
-      <c r="V19" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="W19" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="X19" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="Y19" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="Z19" t="n">
-        <v>2.22</v>
-      </c>
       <c r="AA19" t="n">
-        <v>0.89</v>
+        <v>0.14</v>
       </c>
       <c r="AB19" t="n">
-        <v>1.73</v>
+        <v>1.82</v>
       </c>
       <c r="AC19" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="AD19" t="n">
-        <v>2.79</v>
+        <v>2.89</v>
       </c>
       <c r="AE19" t="n">
-        <v>1.5</v>
+        <v>1.28</v>
       </c>
       <c r="AF19" t="n">
-        <v>9.6</v>
+        <v>10</v>
       </c>
       <c r="AG19" t="n">
-        <v>3.18</v>
+        <v>4.75</v>
       </c>
       <c r="AH19" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AI19" t="n">
         <v>3.5</v>
       </c>
       <c r="AJ19" t="n">
-        <v>1.47</v>
+        <v>1.42</v>
       </c>
       <c r="AK19" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="AL19" t="n">
-        <v>1.88</v>
+        <v>1.72</v>
       </c>
       <c r="AM19" t="n">
-        <v>1.93</v>
+        <v>1.98</v>
       </c>
       <c r="AN19" t="n">
-        <v>2.4</v>
+        <v>2.12</v>
       </c>
       <c r="AO19" t="n">
-        <v>1.47</v>
+        <v>1.61</v>
       </c>
       <c r="AP19" t="n">
-        <v>3.4</v>
+        <v>2.7</v>
       </c>
       <c r="AQ19" t="n">
-        <v>1.26</v>
+        <v>1.36</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Turkey Süper Lig</t>
+          <t>Bulgaria First League</t>
         </is>
       </c>
       <c r="B20" s="2" t="n">
@@ -3171,134 +3171,134 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>İstanbul Başakşehir</t>
+          <t>Botev Plovdiv</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Hatayspor</t>
+          <t>Hebar 1918</t>
         </is>
       </c>
       <c r="G20" t="n">
-        <v>2.6</v>
+        <v>1.83</v>
       </c>
       <c r="H20" t="n">
-        <v>2.2</v>
+        <v>2.38</v>
       </c>
       <c r="I20" t="n">
-        <v>4.33</v>
+        <v>8.5</v>
       </c>
       <c r="J20" t="n">
-        <v>1.95</v>
+        <v>1.55</v>
       </c>
       <c r="K20" t="n">
-        <v>3.55</v>
+        <v>4.1</v>
       </c>
       <c r="L20" t="n">
-        <v>3.85</v>
+        <v>5.92</v>
       </c>
       <c r="M20" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="N20" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="O20" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="P20" t="n">
-        <v>10.06</v>
+        <v>11.5</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="R20" t="n">
-        <v>3.44</v>
+        <v>3.6</v>
       </c>
       <c r="S20" t="n">
-        <v>1.98</v>
+        <v>1.9</v>
       </c>
       <c r="T20" t="n">
-        <v>1.88</v>
+        <v>1.89</v>
       </c>
       <c r="U20" t="n">
-        <v>1.8</v>
+        <v>2.25</v>
       </c>
       <c r="V20" t="n">
-        <v>1.91</v>
+        <v>1.57</v>
       </c>
       <c r="W20" t="n">
-        <v>1.3</v>
+        <v>1.02</v>
       </c>
       <c r="X20" t="n">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="Y20" t="n">
-        <v>1.9</v>
+        <v>3.2</v>
       </c>
       <c r="Z20" t="n">
-        <v>1.17</v>
+        <v>1.44</v>
       </c>
       <c r="AA20" t="n">
-        <v>0.86</v>
+        <v>0.78</v>
       </c>
       <c r="AB20" t="n">
-        <v>1.19</v>
+        <v>1.94</v>
       </c>
       <c r="AC20" t="n">
-        <v>1.2</v>
+        <v>0.96</v>
       </c>
       <c r="AD20" t="n">
-        <v>2.39</v>
+        <v>2.9</v>
       </c>
       <c r="AE20" t="n">
-        <v>1.6</v>
+        <v>0</v>
       </c>
       <c r="AF20" t="n">
-        <v>9.1</v>
+        <v>0</v>
       </c>
       <c r="AG20" t="n">
-        <v>2.79</v>
+        <v>0</v>
       </c>
       <c r="AH20" t="n">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="AI20" t="n">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="AJ20" t="n">
-        <v>1.47</v>
+        <v>0</v>
       </c>
       <c r="AK20" t="n">
-        <v>2.4</v>
+        <v>0</v>
       </c>
       <c r="AL20" t="n">
-        <v>1.95</v>
+        <v>0</v>
       </c>
       <c r="AM20" t="n">
-        <v>1.85</v>
+        <v>0</v>
       </c>
       <c r="AN20" t="n">
-        <v>2.4</v>
+        <v>0</v>
       </c>
       <c r="AO20" t="n">
-        <v>1.47</v>
+        <v>0</v>
       </c>
       <c r="AP20" t="n">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="AQ20" t="n">
-        <v>1.26</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Turkey Süper Lig</t>
+          <t>Spain Segunda División</t>
         </is>
       </c>
       <c r="B21" s="2" t="n">
@@ -3310,95 +3310,95 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Kayserispor</t>
+          <t>Elche CF</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Pendikspor</t>
+          <t>FC Cartagena</t>
         </is>
       </c>
       <c r="G21" t="n">
-        <v>2.5</v>
+        <v>2.35</v>
       </c>
       <c r="H21" t="n">
-        <v>2.3</v>
+        <v>2.05</v>
       </c>
       <c r="I21" t="n">
-        <v>4</v>
+        <v>4.9</v>
       </c>
       <c r="J21" t="n">
-        <v>1.9</v>
+        <v>1.76</v>
       </c>
       <c r="K21" t="n">
-        <v>3.7</v>
+        <v>3.64</v>
       </c>
       <c r="L21" t="n">
-        <v>3.75</v>
+        <v>4.64</v>
       </c>
       <c r="M21" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="N21" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="O21" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="P21" t="n">
+        <v>8</v>
+      </c>
+      <c r="Q21" t="n">
         <v>1.33</v>
       </c>
-      <c r="N21" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="O21" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="P21" t="n">
-        <v>15</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>1.21</v>
-      </c>
       <c r="R21" t="n">
-        <v>4.22</v>
+        <v>3</v>
       </c>
       <c r="S21" t="n">
-        <v>1.64</v>
+        <v>2.08</v>
       </c>
       <c r="T21" t="n">
-        <v>2.26</v>
+        <v>1.74</v>
       </c>
       <c r="U21" t="n">
-        <v>1.62</v>
+        <v>2</v>
       </c>
       <c r="V21" t="n">
-        <v>2.2</v>
+        <v>1.72</v>
       </c>
       <c r="W21" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="X21" t="n">
-        <v>1.27</v>
+        <v>1.24</v>
       </c>
       <c r="Y21" t="n">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="Z21" t="n">
-        <v>2.14</v>
+        <v>2.22</v>
       </c>
       <c r="AA21" t="n">
-        <v>1.14</v>
+        <v>0.89</v>
       </c>
       <c r="AB21" t="n">
-        <v>1.41</v>
+        <v>1.73</v>
       </c>
       <c r="AC21" t="n">
-        <v>1.45</v>
+        <v>1.06</v>
       </c>
       <c r="AD21" t="n">
-        <v>2.86</v>
+        <v>2.79</v>
       </c>
       <c r="AE21" t="n">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="AF21" t="n">
-        <v>9.300000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="AG21" t="n">
         <v>3.18</v>
@@ -3416,10 +3416,10 @@
         <v>2.4</v>
       </c>
       <c r="AL21" t="n">
-        <v>1.95</v>
+        <v>1.88</v>
       </c>
       <c r="AM21" t="n">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AN21" t="n">
         <v>2.4</v>
@@ -3428,7 +3428,7 @@
         <v>1.47</v>
       </c>
       <c r="AP21" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="AQ21" t="n">
         <v>1.26</v>
@@ -3471,37 +3471,37 @@
         <v>3.75</v>
       </c>
       <c r="J22" t="n">
-        <v>2.1</v>
+        <v>2.14</v>
       </c>
       <c r="K22" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="L22" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="M22" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="N22" t="n">
         <v>2.9</v>
       </c>
-      <c r="M22" t="n">
-        <v>0</v>
-      </c>
-      <c r="N22" t="n">
-        <v>0</v>
-      </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>8.5</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>3.9</v>
       </c>
       <c r="S22" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="T22" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="U22" t="n">
         <v>1.67</v>
@@ -3510,13 +3510,13 @@
         <v>2.1</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>1.77</v>
       </c>
       <c r="Z22" t="n">
         <v>1.38</v>
@@ -3610,37 +3610,37 @@
         <v>2.4</v>
       </c>
       <c r="J23" t="n">
-        <v>3.3</v>
+        <v>3.45</v>
       </c>
       <c r="K23" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="L23" t="n">
-        <v>1.91</v>
+        <v>1.96</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>1.37</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>2.8</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>3.9</v>
       </c>
       <c r="S23" t="n">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="T23" t="n">
-        <v>1.91</v>
+        <v>2.14</v>
       </c>
       <c r="U23" t="n">
         <v>1.73</v>
@@ -3649,13 +3649,13 @@
         <v>2</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>1.83</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="Z23" t="n">
         <v>0.88</v>
@@ -3749,13 +3749,13 @@
         <v>4.2</v>
       </c>
       <c r="J24" t="n">
-        <v>1.75</v>
+        <v>1.81</v>
       </c>
       <c r="K24" t="n">
-        <v>3.7</v>
+        <v>3.85</v>
       </c>
       <c r="L24" t="n">
-        <v>4.2</v>
+        <v>3.93</v>
       </c>
       <c r="M24" t="n">
         <v>1.29</v>
@@ -3776,10 +3776,10 @@
         <v>4.75</v>
       </c>
       <c r="S24" t="n">
-        <v>1.53</v>
+        <v>1.56</v>
       </c>
       <c r="T24" t="n">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="U24" t="n">
         <v>1.5</v>
@@ -3888,13 +3888,13 @@
         <v>3.5</v>
       </c>
       <c r="J25" t="n">
-        <v>2.05</v>
+        <v>2.02</v>
       </c>
       <c r="K25" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="L25" t="n">
-        <v>3</v>
+        <v>3.17</v>
       </c>
       <c r="M25" t="n">
         <v>1.33</v>
@@ -3993,7 +3993,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Netherlands Eredivisie</t>
+          <t>Austria Bundesliga</t>
         </is>
       </c>
       <c r="B26" s="2" t="n">
@@ -4005,134 +4005,134 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Fortuna Sittard</t>
+          <t>Blau-Weiß Linz</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>RKC Waalwijk</t>
+          <t>Wattens</t>
         </is>
       </c>
       <c r="G26" t="n">
-        <v>2.4</v>
+        <v>2.63</v>
       </c>
       <c r="H26" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="I26" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="J26" t="n">
-        <v>1.87</v>
+        <v>1.93</v>
       </c>
       <c r="K26" t="n">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="L26" t="n">
-        <v>4</v>
+        <v>3.55</v>
       </c>
       <c r="M26" t="n">
-        <v>1.33</v>
+        <v>1.4</v>
       </c>
       <c r="N26" t="n">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="O26" t="n">
-        <v>1</v>
+        <v>1.05</v>
       </c>
       <c r="P26" t="n">
-        <v>10.5</v>
+        <v>12</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.2</v>
+        <v>1.28</v>
       </c>
       <c r="R26" t="n">
-        <v>3.9</v>
+        <v>3.65</v>
       </c>
       <c r="S26" t="n">
         <v>1.73</v>
       </c>
       <c r="T26" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="U26" t="n">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="V26" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="W26" t="n">
-        <v>1.25</v>
+        <v>1.3</v>
       </c>
       <c r="X26" t="n">
-        <v>1.27</v>
+        <v>1.32</v>
       </c>
       <c r="Y26" t="n">
-        <v>1.97</v>
+        <v>1.75</v>
       </c>
       <c r="Z26" t="n">
-        <v>2</v>
+        <v>1.38</v>
       </c>
       <c r="AA26" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AB26" t="n">
-        <v>1.76</v>
+        <v>1.23</v>
       </c>
       <c r="AC26" t="n">
-        <v>1.43</v>
+        <v>1.02</v>
       </c>
       <c r="AD26" t="n">
-        <v>3.19</v>
+        <v>2.25</v>
       </c>
       <c r="AE26" t="n">
-        <v>1.53</v>
+        <v>1.69</v>
       </c>
       <c r="AF26" t="n">
         <v>8</v>
       </c>
       <c r="AG26" t="n">
-        <v>3</v>
+        <v>2.54</v>
       </c>
       <c r="AH26" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="AI26" t="n">
-        <v>3.45</v>
+        <v>3.95</v>
       </c>
       <c r="AJ26" t="n">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
       <c r="AK26" t="n">
-        <v>2.5</v>
+        <v>2.7</v>
       </c>
       <c r="AL26" t="n">
-        <v>1.77</v>
+        <v>1.75</v>
       </c>
       <c r="AM26" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AN26" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AO26" t="n">
-        <v>1.56</v>
+        <v>1.6</v>
       </c>
       <c r="AP26" t="n">
-        <v>2.88</v>
+        <v>3.05</v>
       </c>
       <c r="AQ26" t="n">
-        <v>1.33</v>
+        <v>1.35</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Austria Bundesliga</t>
+          <t>Netherlands Eredivisie</t>
         </is>
       </c>
       <c r="B27" s="2" t="n">
@@ -4144,128 +4144,128 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Blau-Weiß Linz</t>
+          <t>Fortuna Sittard</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Wattens</t>
+          <t>RKC Waalwijk</t>
         </is>
       </c>
       <c r="G27" t="n">
-        <v>2.63</v>
+        <v>2.4</v>
       </c>
       <c r="H27" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="I27" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="J27" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="K27" t="n">
         <v>3.55</v>
       </c>
       <c r="L27" t="n">
-        <v>3.6</v>
+        <v>4.28</v>
       </c>
       <c r="M27" t="n">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="N27" t="n">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="O27" t="n">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="P27" t="n">
-        <v>12</v>
+        <v>10.5</v>
       </c>
       <c r="Q27" t="n">
-        <v>1.28</v>
+        <v>1.2</v>
       </c>
       <c r="R27" t="n">
-        <v>3.65</v>
+        <v>3.9</v>
       </c>
       <c r="S27" t="n">
-        <v>1.88</v>
+        <v>1.58</v>
       </c>
       <c r="T27" t="n">
-        <v>1.98</v>
+        <v>2.18</v>
       </c>
       <c r="U27" t="n">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="V27" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="W27" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="X27" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="Y27" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="Z27" t="n">
         <v>2</v>
       </c>
-      <c r="W27" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="X27" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="Y27" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="Z27" t="n">
-        <v>1.38</v>
-      </c>
       <c r="AA27" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AB27" t="n">
-        <v>1.23</v>
+        <v>1.76</v>
       </c>
       <c r="AC27" t="n">
-        <v>1.02</v>
+        <v>1.43</v>
       </c>
       <c r="AD27" t="n">
-        <v>2.25</v>
+        <v>3.19</v>
       </c>
       <c r="AE27" t="n">
-        <v>1.69</v>
+        <v>1.53</v>
       </c>
       <c r="AF27" t="n">
         <v>8</v>
       </c>
       <c r="AG27" t="n">
-        <v>2.54</v>
+        <v>3</v>
       </c>
       <c r="AH27" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="AI27" t="n">
-        <v>3.95</v>
+        <v>3.45</v>
       </c>
       <c r="AJ27" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="AK27" t="n">
-        <v>2.7</v>
+        <v>2.5</v>
       </c>
       <c r="AL27" t="n">
-        <v>1.75</v>
+        <v>1.77</v>
       </c>
       <c r="AM27" t="n">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AN27" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="AO27" t="n">
-        <v>1.6</v>
+        <v>1.56</v>
       </c>
       <c r="AP27" t="n">
-        <v>3.05</v>
+        <v>2.88</v>
       </c>
       <c r="AQ27" t="n">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
     </row>
     <row r="28">
@@ -4287,31 +4287,31 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Everton</t>
+          <t>Fulham</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Chelsea</t>
+          <t>West Ham United</t>
         </is>
       </c>
       <c r="G28" t="n">
-        <v>3.75</v>
+        <v>3.1</v>
       </c>
       <c r="H28" t="n">
         <v>2.2</v>
       </c>
       <c r="I28" t="n">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="J28" t="n">
-        <v>3.4</v>
+        <v>2.67</v>
       </c>
       <c r="K28" t="n">
-        <v>3.5</v>
+        <v>3.54</v>
       </c>
       <c r="L28" t="n">
-        <v>2.1</v>
+        <v>2.52</v>
       </c>
       <c r="M28" t="n">
         <v>1.36</v>
@@ -4332,10 +4332,10 @@
         <v>3.9</v>
       </c>
       <c r="S28" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="T28" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="U28" t="n">
         <v>1.67</v>
@@ -4344,67 +4344,67 @@
         <v>2.1</v>
       </c>
       <c r="W28" t="n">
-        <v>1.72</v>
+        <v>1.46</v>
       </c>
       <c r="X28" t="n">
-        <v>1.28</v>
+        <v>1.3</v>
       </c>
       <c r="Y28" t="n">
-        <v>1.31</v>
+        <v>1.49</v>
       </c>
       <c r="Z28" t="n">
-        <v>0.88</v>
+        <v>1.71</v>
       </c>
       <c r="AA28" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AB28" t="n">
         <v>1.43</v>
       </c>
-      <c r="AB28" t="n">
+      <c r="AC28" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AD28" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="AE28" t="n">
         <v>1.79</v>
-      </c>
-      <c r="AC28" t="n">
-        <v>1.51</v>
-      </c>
-      <c r="AD28" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="AE28" t="n">
-        <v>2.33</v>
       </c>
       <c r="AF28" t="n">
         <v>8</v>
       </c>
       <c r="AG28" t="n">
-        <v>1.79</v>
+        <v>2.3</v>
       </c>
       <c r="AH28" t="n">
-        <v>1.18</v>
+        <v>1.15</v>
       </c>
       <c r="AI28" t="n">
-        <v>4</v>
+        <v>4.4</v>
       </c>
       <c r="AJ28" t="n">
-        <v>1.34</v>
+        <v>1.28</v>
       </c>
       <c r="AK28" t="n">
-        <v>2.8</v>
+        <v>3.05</v>
       </c>
       <c r="AL28" t="n">
-        <v>1.61</v>
+        <v>1.5</v>
       </c>
       <c r="AM28" t="n">
-        <v>2.12</v>
+        <v>2.3</v>
       </c>
       <c r="AN28" t="n">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="AO28" t="n">
-        <v>1.7</v>
+        <v>1.84</v>
       </c>
       <c r="AP28" t="n">
-        <v>2.5</v>
+        <v>2.28</v>
       </c>
       <c r="AQ28" t="n">
-        <v>1.42</v>
+        <v>1.52</v>
       </c>
     </row>
     <row r="29">
@@ -4549,7 +4549,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Poland Ekstraklasa</t>
+          <t>Slovenia PrvaLiga</t>
         </is>
       </c>
       <c r="B30" s="2" t="n">
@@ -4561,134 +4561,134 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>ŁKS Łódź</t>
+          <t>Koper</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Legia Warszawa</t>
+          <t>Olimpija</t>
         </is>
       </c>
       <c r="G30" t="n">
-        <v>5.5</v>
+        <v>3.5</v>
       </c>
       <c r="H30" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="I30" t="n">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="J30" t="n">
-        <v>5</v>
+        <v>2.89</v>
       </c>
       <c r="K30" t="n">
-        <v>3.7</v>
+        <v>3.35</v>
       </c>
       <c r="L30" t="n">
-        <v>1.6</v>
+        <v>2.16</v>
       </c>
       <c r="M30" t="n">
         <v>1.36</v>
       </c>
       <c r="N30" t="n">
-        <v>3</v>
+        <v>2.98</v>
       </c>
       <c r="O30" t="n">
-        <v>1.05</v>
+        <v>1.01</v>
       </c>
       <c r="P30" t="n">
-        <v>9</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="Q30" t="n">
-        <v>1.22</v>
+        <v>1.28</v>
       </c>
       <c r="R30" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="S30" t="n">
-        <v>1.73</v>
+        <v>1.76</v>
       </c>
       <c r="T30" t="n">
-        <v>1.91</v>
+        <v>1.85</v>
       </c>
       <c r="U30" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="V30" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="W30" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="X30" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="Y30" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="Z30" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AA30" t="n">
         <v>2</v>
       </c>
-      <c r="W30" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="X30" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="Y30" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="Z30" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA30" t="n">
-        <v>1.57</v>
-      </c>
       <c r="AB30" t="n">
-        <v>1.22</v>
+        <v>1.52</v>
       </c>
       <c r="AC30" t="n">
-        <v>1.4</v>
+        <v>1.85</v>
       </c>
       <c r="AD30" t="n">
-        <v>2.62</v>
+        <v>3.37</v>
       </c>
       <c r="AE30" t="n">
-        <v>3.44</v>
+        <v>0</v>
       </c>
       <c r="AF30" t="n">
-        <v>9.699999999999999</v>
+        <v>0</v>
       </c>
       <c r="AG30" t="n">
-        <v>1.43</v>
+        <v>0</v>
       </c>
       <c r="AH30" t="n">
-        <v>1.23</v>
+        <v>0</v>
       </c>
       <c r="AI30" t="n">
-        <v>3.56</v>
+        <v>0</v>
       </c>
       <c r="AJ30" t="n">
-        <v>1.42</v>
+        <v>1.35</v>
       </c>
       <c r="AK30" t="n">
-        <v>2.65</v>
+        <v>2.95</v>
       </c>
       <c r="AL30" t="n">
-        <v>1.9</v>
+        <v>1.68</v>
       </c>
       <c r="AM30" t="n">
-        <v>1.9</v>
+        <v>2.12</v>
       </c>
       <c r="AN30" t="n">
-        <v>2.11</v>
+        <v>2.07</v>
       </c>
       <c r="AO30" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="AP30" t="n">
-        <v>3</v>
+        <v>2.7</v>
       </c>
       <c r="AQ30" t="n">
-        <v>1.34</v>
+        <v>1.41</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Slovenia PrvaLiga</t>
+          <t>Czech Republic First League</t>
         </is>
       </c>
       <c r="B31" s="2" t="n">
@@ -4700,128 +4700,128 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Koper</t>
+          <t>Viktoria Plzeň</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Olimpija</t>
+          <t>České Budějovice</t>
         </is>
       </c>
       <c r="G31" t="n">
-        <v>3.5</v>
+        <v>1.55</v>
       </c>
       <c r="H31" t="n">
-        <v>2.2</v>
+        <v>2.95</v>
       </c>
       <c r="I31" t="n">
-        <v>2.75</v>
+        <v>8</v>
       </c>
       <c r="J31" t="n">
-        <v>2.88</v>
+        <v>1.2</v>
       </c>
       <c r="K31" t="n">
-        <v>3.3</v>
+        <v>6.2</v>
       </c>
       <c r="L31" t="n">
-        <v>2.2</v>
+        <v>11.9</v>
       </c>
       <c r="M31" t="n">
-        <v>1.36</v>
+        <v>1.2</v>
       </c>
       <c r="N31" t="n">
-        <v>2.98</v>
+        <v>4.15</v>
       </c>
       <c r="O31" t="n">
-        <v>1.01</v>
+        <v>1</v>
       </c>
       <c r="P31" t="n">
-        <v>9.699999999999999</v>
+        <v>12</v>
       </c>
       <c r="Q31" t="n">
-        <v>1.28</v>
+        <v>1.1</v>
       </c>
       <c r="R31" t="n">
-        <v>3.5</v>
+        <v>5.75</v>
       </c>
       <c r="S31" t="n">
-        <v>1.75</v>
+        <v>1.37</v>
       </c>
       <c r="T31" t="n">
-        <v>1.87</v>
+        <v>2.85</v>
       </c>
       <c r="U31" t="n">
-        <v>1.67</v>
+        <v>1.83</v>
       </c>
       <c r="V31" t="n">
-        <v>2.15</v>
+        <v>1.9</v>
       </c>
       <c r="W31" t="n">
-        <v>1.62</v>
+        <v>1.03</v>
       </c>
       <c r="X31" t="n">
-        <v>1.28</v>
+        <v>1.1</v>
       </c>
       <c r="Y31" t="n">
-        <v>1.36</v>
+        <v>4.3</v>
       </c>
       <c r="Z31" t="n">
-        <v>1.67</v>
+        <v>2</v>
       </c>
       <c r="AA31" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="AB31" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AC31" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AD31" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="AE31" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AF31" t="n">
+        <v>11</v>
+      </c>
+      <c r="AG31" t="n">
+        <v>5.17</v>
+      </c>
+      <c r="AH31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ31" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AK31" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="AL31" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AM31" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="AN31" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AO31" t="n">
         <v>2</v>
       </c>
-      <c r="AB31" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="AC31" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="AD31" t="n">
-        <v>3.37</v>
-      </c>
-      <c r="AE31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ31" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="AK31" t="n">
-        <v>2.95</v>
-      </c>
-      <c r="AL31" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="AM31" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="AN31" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="AO31" t="n">
-        <v>1.72</v>
-      </c>
       <c r="AP31" t="n">
-        <v>2.7</v>
+        <v>2.27</v>
       </c>
       <c r="AQ31" t="n">
-        <v>1.41</v>
+        <v>1.56</v>
       </c>
     </row>
     <row r="32">
@@ -4843,130 +4843,130 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Viktoria Plzeň</t>
+          <t>Teplice</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>České Budějovice</t>
+          <t>Sigma Olomouc</t>
         </is>
       </c>
       <c r="G32" t="n">
-        <v>1.55</v>
+        <v>3.6</v>
       </c>
       <c r="H32" t="n">
-        <v>2.95</v>
+        <v>2.05</v>
       </c>
       <c r="I32" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="J32" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="K32" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="L32" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="M32" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="N32" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="O32" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="P32" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="R32" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="S32" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="T32" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="U32" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="V32" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="W32" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="X32" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="Y32" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="Z32" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AA32" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AB32" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AC32" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AD32" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="AE32" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AF32" t="n">
         <v>8</v>
       </c>
-      <c r="J32" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="K32" t="n">
-        <v>6</v>
-      </c>
-      <c r="L32" t="n">
-        <v>13</v>
-      </c>
-      <c r="M32" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="N32" t="n">
-        <v>4.15</v>
-      </c>
-      <c r="O32" t="n">
-        <v>1</v>
-      </c>
-      <c r="P32" t="n">
-        <v>12</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="R32" t="n">
-        <v>5.75</v>
-      </c>
-      <c r="S32" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="T32" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="U32" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="V32" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="W32" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="X32" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="Y32" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="Z32" t="n">
+      <c r="AG32" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AH32" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AI32" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="AJ32" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AK32" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="AL32" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AM32" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="AN32" t="n">
         <v>2</v>
       </c>
-      <c r="AA32" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="AB32" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="AC32" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="AD32" t="n">
-        <v>3.16</v>
-      </c>
-      <c r="AE32" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="AF32" t="n">
-        <v>11</v>
-      </c>
-      <c r="AG32" t="n">
-        <v>5.17</v>
-      </c>
-      <c r="AH32" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI32" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ32" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="AK32" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="AL32" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="AM32" t="n">
-        <v>2.47</v>
-      </c>
-      <c r="AN32" t="n">
+      <c r="AO32" t="n">
         <v>1.8</v>
       </c>
-      <c r="AO32" t="n">
-        <v>2</v>
-      </c>
       <c r="AP32" t="n">
-        <v>2.27</v>
+        <v>2.44</v>
       </c>
       <c r="AQ32" t="n">
-        <v>1.56</v>
+        <v>1.49</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Czech Republic First League</t>
+          <t>England Premier League</t>
         </is>
       </c>
       <c r="B33" s="2" t="n">
@@ -4978,134 +4978,134 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Teplice</t>
+          <t>Everton</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Sigma Olomouc</t>
+          <t>Chelsea</t>
         </is>
       </c>
       <c r="G33" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="H33" t="n">
-        <v>2.05</v>
+        <v>2.2</v>
       </c>
       <c r="I33" t="n">
-        <v>3.2</v>
+        <v>2.75</v>
       </c>
       <c r="J33" t="n">
-        <v>3.25</v>
+        <v>4.24</v>
       </c>
       <c r="K33" t="n">
-        <v>3.25</v>
+        <v>3.64</v>
       </c>
       <c r="L33" t="n">
-        <v>2.2</v>
+        <v>1.84</v>
       </c>
       <c r="M33" t="n">
-        <v>1.44</v>
+        <v>1.36</v>
       </c>
       <c r="N33" t="n">
-        <v>2.63</v>
+        <v>3</v>
       </c>
       <c r="O33" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="P33" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="Q33" t="n">
-        <v>1.3</v>
+        <v>1.28</v>
       </c>
       <c r="R33" t="n">
-        <v>3.4</v>
+        <v>3.9</v>
       </c>
       <c r="S33" t="n">
-        <v>1.93</v>
+        <v>1.76</v>
       </c>
       <c r="T33" t="n">
-        <v>1.78</v>
+        <v>2.06</v>
       </c>
       <c r="U33" t="n">
-        <v>1.91</v>
+        <v>1.67</v>
       </c>
       <c r="V33" t="n">
-        <v>1.91</v>
+        <v>2.1</v>
       </c>
       <c r="W33" t="n">
-        <v>1.57</v>
+        <v>1.72</v>
       </c>
       <c r="X33" t="n">
-        <v>1.3</v>
+        <v>1.28</v>
       </c>
       <c r="Y33" t="n">
-        <v>1.35</v>
+        <v>1.31</v>
       </c>
       <c r="Z33" t="n">
-        <v>1.25</v>
+        <v>0.88</v>
       </c>
       <c r="AA33" t="n">
-        <v>1.38</v>
+        <v>1.43</v>
       </c>
       <c r="AB33" t="n">
-        <v>1.16</v>
+        <v>1.8</v>
       </c>
       <c r="AC33" t="n">
-        <v>1.18</v>
+        <v>1.51</v>
       </c>
       <c r="AD33" t="n">
-        <v>2.34</v>
+        <v>3.31</v>
       </c>
       <c r="AE33" t="n">
-        <v>2.1</v>
+        <v>2.33</v>
       </c>
       <c r="AF33" t="n">
         <v>8</v>
       </c>
       <c r="AG33" t="n">
-        <v>1.95</v>
+        <v>1.79</v>
       </c>
       <c r="AH33" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="AI33" t="n">
-        <v>4.8</v>
+        <v>4</v>
       </c>
       <c r="AJ33" t="n">
-        <v>1.29</v>
+        <v>1.34</v>
       </c>
       <c r="AK33" t="n">
-        <v>3.14</v>
+        <v>2.8</v>
       </c>
       <c r="AL33" t="n">
-        <v>1.54</v>
+        <v>1.61</v>
       </c>
       <c r="AM33" t="n">
-        <v>2.32</v>
+        <v>2.12</v>
       </c>
       <c r="AN33" t="n">
         <v>2</v>
       </c>
       <c r="AO33" t="n">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="AP33" t="n">
-        <v>2.44</v>
+        <v>2.5</v>
       </c>
       <c r="AQ33" t="n">
-        <v>1.49</v>
+        <v>1.42</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>England Premier League</t>
+          <t>Serbia SuperLiga</t>
         </is>
       </c>
       <c r="B34" s="2" t="n">
@@ -5117,35 +5117,35 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Fulham</t>
+          <t>Javor Ivanjica</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>West Ham United</t>
+          <t>Čukarički</t>
         </is>
       </c>
       <c r="G34" t="n">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="H34" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="I34" t="n">
-        <v>3.25</v>
+        <v>2.6</v>
       </c>
       <c r="J34" t="n">
-        <v>2.37</v>
+        <v>3.5</v>
       </c>
       <c r="K34" t="n">
-        <v>3.4</v>
+        <v>3.15</v>
       </c>
       <c r="L34" t="n">
-        <v>2.9</v>
+        <v>1.87</v>
       </c>
       <c r="M34" t="n">
         <v>1.36</v>
@@ -5154,91 +5154,91 @@
         <v>3</v>
       </c>
       <c r="O34" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="P34" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="Q34" t="n">
-        <v>1.28</v>
+        <v>1.25</v>
       </c>
       <c r="R34" t="n">
-        <v>3.9</v>
+        <v>3.75</v>
       </c>
       <c r="S34" t="n">
-        <v>1.73</v>
+        <v>1.96</v>
       </c>
       <c r="T34" t="n">
-        <v>2</v>
+        <v>1.77</v>
       </c>
       <c r="U34" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="V34" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="W34" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="X34" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="Y34" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="Z34" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="AA34" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AB34" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AC34" t="n">
         <v>1.67</v>
       </c>
-      <c r="V34" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="W34" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="X34" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="Y34" t="n">
-        <v>1.49</v>
-      </c>
-      <c r="Z34" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="AA34" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="AB34" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="AC34" t="n">
-        <v>1.24</v>
-      </c>
       <c r="AD34" t="n">
-        <v>2.67</v>
+        <v>3.05</v>
       </c>
       <c r="AE34" t="n">
-        <v>1.79</v>
+        <v>2.44</v>
       </c>
       <c r="AF34" t="n">
         <v>8</v>
       </c>
       <c r="AG34" t="n">
-        <v>2.3</v>
+        <v>1.75</v>
       </c>
       <c r="AH34" t="n">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AI34" t="n">
-        <v>4.4</v>
+        <v>3.14</v>
       </c>
       <c r="AJ34" t="n">
-        <v>1.28</v>
+        <v>1.54</v>
       </c>
       <c r="AK34" t="n">
-        <v>3.05</v>
+        <v>2.25</v>
       </c>
       <c r="AL34" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AM34" t="n">
-        <v>2.3</v>
+        <v>1.8</v>
       </c>
       <c r="AN34" t="n">
-        <v>1.85</v>
+        <v>2.54</v>
       </c>
       <c r="AO34" t="n">
-        <v>1.84</v>
+        <v>1.43</v>
       </c>
       <c r="AP34" t="n">
-        <v>2.28</v>
+        <v>3.48</v>
       </c>
       <c r="AQ34" t="n">
-        <v>1.52</v>
+        <v>1.24</v>
       </c>
     </row>
     <row r="35">
@@ -5278,13 +5278,13 @@
         <v>1.5</v>
       </c>
       <c r="J35" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="K35" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="L35" t="n">
-        <v>1.14</v>
+        <v>1.08</v>
       </c>
       <c r="M35" t="n">
         <v>1.2</v>
@@ -5305,10 +5305,10 @@
         <v>6.8</v>
       </c>
       <c r="S35" t="n">
-        <v>1.34</v>
+        <v>1.38</v>
       </c>
       <c r="T35" t="n">
-        <v>2.98</v>
+        <v>2.9</v>
       </c>
       <c r="U35" t="n">
         <v>2.05</v>
@@ -5417,10 +5417,10 @@
         <v>3.32</v>
       </c>
       <c r="J36" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="K36" t="n">
-        <v>3.25</v>
+        <v>3.45</v>
       </c>
       <c r="L36" t="n">
         <v>2.55</v>
@@ -5444,10 +5444,10 @@
         <v>3.42</v>
       </c>
       <c r="S36" t="n">
-        <v>1.92</v>
+        <v>1.81</v>
       </c>
       <c r="T36" t="n">
-        <v>1.86</v>
+        <v>2.03</v>
       </c>
       <c r="U36" t="n">
         <v>1.67</v>
@@ -5556,13 +5556,13 @@
         <v>2.4</v>
       </c>
       <c r="J37" t="n">
-        <v>3.7</v>
+        <v>3.54</v>
       </c>
       <c r="K37" t="n">
-        <v>3.4</v>
+        <v>3.64</v>
       </c>
       <c r="L37" t="n">
-        <v>2.05</v>
+        <v>2.02</v>
       </c>
       <c r="M37" t="n">
         <v>1.44</v>
@@ -5583,10 +5583,10 @@
         <v>3.2</v>
       </c>
       <c r="S37" t="n">
-        <v>1.95</v>
+        <v>1.83</v>
       </c>
       <c r="T37" t="n">
-        <v>1.8</v>
+        <v>1.97</v>
       </c>
       <c r="U37" t="n">
         <v>1.95</v>
@@ -5695,13 +5695,13 @@
         <v>2.88</v>
       </c>
       <c r="J38" t="n">
-        <v>3.2</v>
+        <v>3.24</v>
       </c>
       <c r="K38" t="n">
-        <v>3.25</v>
+        <v>3.34</v>
       </c>
       <c r="L38" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="M38" t="n">
         <v>1.44</v>
@@ -5722,10 +5722,10 @@
         <v>3</v>
       </c>
       <c r="S38" t="n">
-        <v>2.05</v>
+        <v>2.01</v>
       </c>
       <c r="T38" t="n">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="U38" t="n">
         <v>1.91</v>
@@ -5837,10 +5837,10 @@
         <v>2.15</v>
       </c>
       <c r="K39" t="n">
-        <v>3.25</v>
+        <v>3.24</v>
       </c>
       <c r="L39" t="n">
-        <v>3.5</v>
+        <v>3.54</v>
       </c>
       <c r="M39" t="n">
         <v>1.5</v>
@@ -5861,10 +5861,10 @@
         <v>2.8</v>
       </c>
       <c r="S39" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="T39" t="n">
-        <v>1.7</v>
+        <v>1.81</v>
       </c>
       <c r="U39" t="n">
         <v>1.95</v>
@@ -5973,13 +5973,13 @@
         <v>3.4</v>
       </c>
       <c r="J40" t="n">
-        <v>2.38</v>
+        <v>2.35</v>
       </c>
       <c r="K40" t="n">
-        <v>3.25</v>
+        <v>3.35</v>
       </c>
       <c r="L40" t="n">
-        <v>2.63</v>
+        <v>2.6</v>
       </c>
       <c r="M40" t="n">
         <v>1.43</v>
@@ -6000,10 +6000,10 @@
         <v>3.1</v>
       </c>
       <c r="S40" t="n">
-        <v>1.76</v>
+        <v>1.71</v>
       </c>
       <c r="T40" t="n">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="U40" t="n">
         <v>1.8</v>
@@ -6217,7 +6217,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Serbia SuperLiga</t>
+          <t>France Ligue 1</t>
         </is>
       </c>
       <c r="B42" s="2" t="n">
@@ -6229,134 +6229,134 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Javor Ivanjica</t>
+          <t>Strasbourg</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Čukarički</t>
+          <t>Le Havre</t>
         </is>
       </c>
       <c r="G42" t="n">
-        <v>3.6</v>
+        <v>2.88</v>
       </c>
       <c r="H42" t="n">
-        <v>2.15</v>
+        <v>2</v>
       </c>
       <c r="I42" t="n">
-        <v>2.6</v>
+        <v>4.33</v>
       </c>
       <c r="J42" t="n">
-        <v>3.25</v>
+        <v>2.05</v>
       </c>
       <c r="K42" t="n">
-        <v>3.5</v>
+        <v>3.54</v>
       </c>
       <c r="L42" t="n">
+        <v>3.54</v>
+      </c>
+      <c r="M42" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="N42" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="O42" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="P42" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="R42" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="S42" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="T42" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="U42" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V42" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="W42" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="X42" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="Y42" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="Z42" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AA42" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AB42" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AC42" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD42" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="AE42" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AF42" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AG42" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AH42" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AI42" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AJ42" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AK42" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="AL42" t="n">
         <v>2.1</v>
       </c>
-      <c r="M42" t="n">
+      <c r="AM42" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AN42" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AO42" t="n">
         <v>1.36</v>
       </c>
-      <c r="N42" t="n">
-        <v>3</v>
-      </c>
-      <c r="O42" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="P42" t="n">
-        <v>9</v>
-      </c>
-      <c r="Q42" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="R42" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="S42" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="T42" t="n">
-        <v>2</v>
-      </c>
-      <c r="U42" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="V42" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="W42" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="X42" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="Y42" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="Z42" t="n">
-        <v>2.14</v>
-      </c>
-      <c r="AA42" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="AB42" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="AC42" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="AD42" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="AE42" t="n">
-        <v>2.44</v>
-      </c>
-      <c r="AF42" t="n">
-        <v>8</v>
-      </c>
-      <c r="AG42" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="AH42" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="AI42" t="n">
-        <v>3.14</v>
-      </c>
-      <c r="AJ42" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="AK42" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="AL42" t="n">
-        <v>2</v>
-      </c>
-      <c r="AM42" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="AN42" t="n">
-        <v>2.54</v>
-      </c>
-      <c r="AO42" t="n">
-        <v>1.43</v>
-      </c>
       <c r="AP42" t="n">
-        <v>3.48</v>
+        <v>3.7</v>
       </c>
       <c r="AQ42" t="n">
-        <v>1.24</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>France Ligue 1</t>
+          <t>Poland Ekstraklasa</t>
         </is>
       </c>
       <c r="B43" s="2" t="n">
@@ -6368,128 +6368,128 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Strasbourg</t>
+          <t>ŁKS Łódź</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Le Havre</t>
+          <t>Legia Warszawa</t>
         </is>
       </c>
       <c r="G43" t="n">
-        <v>2.88</v>
+        <v>5.5</v>
       </c>
       <c r="H43" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="I43" t="n">
         <v>2</v>
       </c>
-      <c r="I43" t="n">
-        <v>4.33</v>
-      </c>
       <c r="J43" t="n">
-        <v>2.1</v>
+        <v>5.1</v>
       </c>
       <c r="K43" t="n">
-        <v>3.25</v>
+        <v>4.26</v>
       </c>
       <c r="L43" t="n">
-        <v>3.7</v>
+        <v>1.61</v>
       </c>
       <c r="M43" t="n">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="N43" t="n">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="O43" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="P43" t="n">
-        <v>2.84</v>
+        <v>9</v>
       </c>
       <c r="Q43" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="R43" t="n">
+        <v>4</v>
+      </c>
+      <c r="S43" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="T43" t="n">
+        <v>2</v>
+      </c>
+      <c r="U43" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="V43" t="n">
+        <v>2</v>
+      </c>
+      <c r="W43" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="X43" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="Y43" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="Z43" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA43" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AB43" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AC43" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AD43" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="AE43" t="n">
+        <v>3.44</v>
+      </c>
+      <c r="AF43" t="n">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="AG43" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AH43" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AI43" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="AJ43" t="n">
         <v>1.42</v>
       </c>
-      <c r="R43" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="S43" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="T43" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="U43" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="V43" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="W43" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="X43" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="Y43" t="n">
+      <c r="AK43" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AL43" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AM43" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AN43" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="AO43" t="n">
         <v>1.71</v>
       </c>
-      <c r="Z43" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="AA43" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="AB43" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="AC43" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD43" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="AE43" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="AF43" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AG43" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="AH43" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="AI43" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="AJ43" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="AK43" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="AL43" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="AM43" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="AN43" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="AO43" t="n">
-        <v>1.36</v>
-      </c>
       <c r="AP43" t="n">
-        <v>3.7</v>
+        <v>3</v>
       </c>
       <c r="AQ43" t="n">
-        <v>1.2</v>
+        <v>1.34</v>
       </c>
     </row>
     <row r="44">
@@ -6532,10 +6532,10 @@
         <v>3.3</v>
       </c>
       <c r="K44" t="n">
-        <v>3.75</v>
+        <v>3.84</v>
       </c>
       <c r="L44" t="n">
-        <v>2.05</v>
+        <v>2.04</v>
       </c>
       <c r="M44" t="n">
         <v>1.29</v>
@@ -6556,10 +6556,10 @@
         <v>5.25</v>
       </c>
       <c r="S44" t="n">
-        <v>1.58</v>
+        <v>1.49</v>
       </c>
       <c r="T44" t="n">
-        <v>2.4</v>
+        <v>2.51</v>
       </c>
       <c r="U44" t="n">
         <v>1.44</v>
@@ -6634,7 +6634,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Belgium Pro League</t>
+          <t>Romania Liga I</t>
         </is>
       </c>
       <c r="B45" s="2" t="n">
@@ -6646,134 +6646,134 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>AS Eupen</t>
+          <t>SSC Farul</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>KRC Genk</t>
+          <t>Petrolul 52</t>
         </is>
       </c>
       <c r="G45" t="n">
-        <v>5.5</v>
+        <v>2.65</v>
       </c>
       <c r="H45" t="n">
-        <v>2.75</v>
+        <v>1.97</v>
       </c>
       <c r="I45" t="n">
-        <v>1.73</v>
+        <v>4.1</v>
       </c>
       <c r="J45" t="n">
-        <v>7</v>
+        <v>1.79</v>
       </c>
       <c r="K45" t="n">
-        <v>4.75</v>
+        <v>3.3</v>
       </c>
       <c r="L45" t="n">
+        <v>4.69</v>
+      </c>
+      <c r="M45" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="N45" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="O45" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="P45" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="R45" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="S45" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="T45" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="U45" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="V45" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="W45" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="X45" t="n">
         <v>1.33</v>
       </c>
-      <c r="M45" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="N45" t="n">
-        <v>4</v>
-      </c>
-      <c r="O45" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="P45" t="n">
-        <v>15</v>
-      </c>
-      <c r="Q45" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="R45" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="S45" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="T45" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="U45" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="V45" t="n">
-        <v>2.37</v>
-      </c>
-      <c r="W45" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="X45" t="n">
-        <v>1.15</v>
-      </c>
       <c r="Y45" t="n">
-        <v>1.1</v>
+        <v>1.72</v>
       </c>
       <c r="Z45" t="n">
-        <v>1</v>
+        <v>1.44</v>
       </c>
       <c r="AA45" t="n">
-        <v>1.75</v>
+        <v>1.33</v>
       </c>
       <c r="AB45" t="n">
-        <v>1.28</v>
+        <v>1.9</v>
       </c>
       <c r="AC45" t="n">
-        <v>1.75</v>
+        <v>1.16</v>
       </c>
       <c r="AD45" t="n">
-        <v>3.03</v>
+        <v>3.06</v>
       </c>
       <c r="AE45" t="n">
-        <v>4</v>
+        <v>1.46</v>
       </c>
       <c r="AF45" t="n">
-        <v>9.5</v>
+        <v>7.5</v>
       </c>
       <c r="AG45" t="n">
-        <v>1.3</v>
+        <v>3.5</v>
       </c>
       <c r="AH45" t="n">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AI45" t="n">
-        <v>3.9</v>
+        <v>2.95</v>
       </c>
       <c r="AJ45" t="n">
-        <v>1.39</v>
+        <v>1.67</v>
       </c>
       <c r="AK45" t="n">
-        <v>2.65</v>
+        <v>2.12</v>
       </c>
       <c r="AL45" t="n">
-        <v>1.7</v>
+        <v>2.15</v>
       </c>
       <c r="AM45" t="n">
-        <v>1.95</v>
+        <v>1.65</v>
       </c>
       <c r="AN45" t="n">
-        <v>2.2</v>
+        <v>2.95</v>
       </c>
       <c r="AO45" t="n">
-        <v>1.55</v>
+        <v>1.37</v>
       </c>
       <c r="AP45" t="n">
-        <v>3</v>
+        <v>4.1</v>
       </c>
       <c r="AQ45" t="n">
-        <v>1.32</v>
+        <v>1.21</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Romania Liga I</t>
+          <t>Belgium Pro League</t>
         </is>
       </c>
       <c r="B46" s="2" t="n">
@@ -6785,134 +6785,134 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>SSC Farul</t>
+          <t>AS Eupen</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Petrolul 52</t>
+          <t>KRC Genk</t>
         </is>
       </c>
       <c r="G46" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="H46" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="I46" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="J46" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="K46" t="n">
+        <v>5.95</v>
+      </c>
+      <c r="L46" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="M46" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="N46" t="n">
+        <v>4</v>
+      </c>
+      <c r="O46" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="P46" t="n">
+        <v>15</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="R46" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="S46" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T46" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="U46" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="V46" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="W46" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="X46" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="Y46" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="Z46" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA46" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AB46" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AC46" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AD46" t="n">
+        <v>3.03</v>
+      </c>
+      <c r="AE46" t="n">
+        <v>4</v>
+      </c>
+      <c r="AF46" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AG46" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AH46" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AI46" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="AJ46" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AK46" t="n">
         <v>2.65</v>
       </c>
-      <c r="H46" t="n">
-        <v>1.97</v>
-      </c>
-      <c r="I46" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="J46" t="n">
-        <v>2</v>
-      </c>
-      <c r="K46" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="L46" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="M46" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="N46" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="O46" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="P46" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="Q46" t="n">
+      <c r="AL46" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AM46" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AN46" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AO46" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AP46" t="n">
+        <v>3</v>
+      </c>
+      <c r="AQ46" t="n">
         <v>1.32</v>
-      </c>
-      <c r="R46" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="S46" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="T46" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="U46" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="V46" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="W46" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="X46" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="Y46" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="Z46" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="AA46" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="AB46" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="AC46" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="AD46" t="n">
-        <v>3.06</v>
-      </c>
-      <c r="AE46" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="AF46" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AG46" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="AH46" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="AI46" t="n">
-        <v>2.95</v>
-      </c>
-      <c r="AJ46" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="AK46" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="AL46" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="AM46" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="AN46" t="n">
-        <v>2.95</v>
-      </c>
-      <c r="AO46" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="AP46" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="AQ46" t="n">
-        <v>1.21</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Spain Segunda División</t>
+          <t>Italy Serie B</t>
         </is>
       </c>
       <c r="B47" s="2" t="n">
@@ -6924,20 +6924,20 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Racing Santander</t>
+          <t>Reggiana</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Real Oviedo</t>
+          <t>Brescia</t>
         </is>
       </c>
       <c r="G47" t="n">
-        <v>3.25</v>
+        <v>2.95</v>
       </c>
       <c r="H47" t="n">
         <v>1.95</v>
@@ -6946,106 +6946,106 @@
         <v>3.75</v>
       </c>
       <c r="J47" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="K47" t="n">
+        <v>3.07</v>
+      </c>
+      <c r="L47" t="n">
+        <v>3.54</v>
+      </c>
+      <c r="M47" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="N47" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="O47" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="P47" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="R47" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="S47" t="n">
         <v>2.45</v>
       </c>
-      <c r="K47" t="n">
-        <v>2.87</v>
-      </c>
-      <c r="L47" t="n">
-        <v>3</v>
-      </c>
-      <c r="M47" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="N47" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="O47" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="P47" t="n">
-        <v>7</v>
-      </c>
-      <c r="Q47" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="R47" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="S47" t="n">
-        <v>2.5</v>
-      </c>
       <c r="T47" t="n">
-        <v>1.46</v>
+        <v>1.55</v>
       </c>
       <c r="U47" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="V47" t="n">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="W47" t="n">
-        <v>1.38</v>
+        <v>1.3</v>
       </c>
       <c r="X47" t="n">
-        <v>1.3</v>
+        <v>1.28</v>
       </c>
       <c r="Y47" t="n">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="Z47" t="n">
-        <v>2.11</v>
+        <v>1.14</v>
       </c>
       <c r="AA47" t="n">
-        <v>0.78</v>
+        <v>1.29</v>
       </c>
       <c r="AB47" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AC47" t="n">
-        <v>1</v>
+        <v>1.39</v>
       </c>
       <c r="AD47" t="n">
-        <v>2.33</v>
+        <v>2.7</v>
       </c>
       <c r="AE47" t="n">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="AF47" t="n">
-        <v>8.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AG47" t="n">
-        <v>2.33</v>
+        <v>2.4</v>
       </c>
       <c r="AH47" t="n">
-        <v>1.34</v>
+        <v>1.25</v>
       </c>
       <c r="AI47" t="n">
-        <v>2.9</v>
+        <v>3.5</v>
       </c>
       <c r="AJ47" t="n">
-        <v>1.62</v>
+        <v>1.47</v>
       </c>
       <c r="AK47" t="n">
-        <v>2.05</v>
+        <v>2.4</v>
       </c>
       <c r="AL47" t="n">
-        <v>2.1</v>
+        <v>1.9</v>
       </c>
       <c r="AM47" t="n">
-        <v>1.61</v>
+        <v>1.9</v>
       </c>
       <c r="AN47" t="n">
-        <v>2.85</v>
+        <v>2.4</v>
       </c>
       <c r="AO47" t="n">
-        <v>1.34</v>
+        <v>1.47</v>
       </c>
       <c r="AP47" t="n">
-        <v>3.64</v>
+        <v>3.3</v>
       </c>
       <c r="AQ47" t="n">
-        <v>1.22</v>
+        <v>1.26</v>
       </c>
     </row>
     <row r="48">
@@ -7067,130 +7067,130 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Reggiana</t>
+          <t>Como</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Brescia</t>
+          <t>Modena</t>
         </is>
       </c>
       <c r="G48" t="n">
-        <v>2.95</v>
+        <v>2.7</v>
       </c>
       <c r="H48" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="I48" t="n">
-        <v>3.75</v>
+        <v>4.3</v>
       </c>
       <c r="J48" t="n">
-        <v>2.2</v>
+        <v>2.17</v>
       </c>
       <c r="K48" t="n">
         <v>3</v>
       </c>
       <c r="L48" t="n">
-        <v>3.4</v>
+        <v>3.31</v>
       </c>
       <c r="M48" t="n">
-        <v>1.52</v>
+        <v>1.48</v>
       </c>
       <c r="N48" t="n">
-        <v>2.39</v>
+        <v>2.4</v>
       </c>
       <c r="O48" t="n">
-        <v>1.06</v>
+        <v>1.08</v>
       </c>
       <c r="P48" t="n">
-        <v>6.8</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="Q48" t="n">
-        <v>1.45</v>
+        <v>1.41</v>
       </c>
       <c r="R48" t="n">
-        <v>2.65</v>
+        <v>2.84</v>
       </c>
       <c r="S48" t="n">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="T48" t="n">
-        <v>1.54</v>
+        <v>1.73</v>
       </c>
       <c r="U48" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V48" t="n">
         <v>1.75</v>
       </c>
       <c r="W48" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="X48" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="Y48" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="Z48" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA48" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AB48" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AC48" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AD48" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="AE48" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AF48" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="AG48" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="AH48" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AI48" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AJ48" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AK48" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AL48" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AM48" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AN48" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AO48" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AP48" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AQ48" t="n">
         <v>1.28</v>
-      </c>
-      <c r="Y48" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="Z48" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="AA48" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="AB48" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="AC48" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="AD48" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="AE48" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="AF48" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="AG48" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="AH48" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="AI48" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="AJ48" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="AK48" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="AL48" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="AM48" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="AN48" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="AO48" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="AP48" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="AQ48" t="n">
-        <v>1.26</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Spain La Liga</t>
+          <t>Italy Serie B</t>
         </is>
       </c>
       <c r="B49" s="2" t="n">
@@ -7206,130 +7206,130 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Granada CF</t>
+          <t>Parma</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Athletic Club Bilbao</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="G49" t="n">
-        <v>4.75</v>
+        <v>2.86</v>
       </c>
       <c r="H49" t="n">
-        <v>2.3</v>
+        <v>2.22</v>
       </c>
       <c r="I49" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="J49" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="K49" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="L49" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="M49" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="N49" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="O49" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="P49" t="n">
+        <v>8</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="R49" t="n">
+        <v>3</v>
+      </c>
+      <c r="S49" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="T49" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="U49" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="V49" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="W49" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X49" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="Y49" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="Z49" t="n">
         <v>2.25</v>
       </c>
-      <c r="J49" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="K49" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="L49" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="M49" t="n">
+      <c r="AA49" t="n">
+        <v>2</v>
+      </c>
+      <c r="AB49" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AC49" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AD49" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="AE49" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="AF49" t="n">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="AG49" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="AH49" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AI49" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="AJ49" t="n">
         <v>1.33</v>
       </c>
-      <c r="N49" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="O49" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="P49" t="n">
-        <v>15</v>
-      </c>
-      <c r="Q49" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="R49" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="S49" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="T49" t="n">
+      <c r="AK49" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AL49" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AM49" t="n">
         <v>2.15</v>
       </c>
-      <c r="U49" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="V49" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="W49" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="X49" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="Y49" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="Z49" t="n">
-        <v>0.86</v>
-      </c>
-      <c r="AA49" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="AB49" t="n">
-        <v>1.49</v>
-      </c>
-      <c r="AC49" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="AD49" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="AE49" t="n">
+      <c r="AN49" t="n">
+        <v>2</v>
+      </c>
+      <c r="AO49" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AP49" t="n">
         <v>2.7</v>
       </c>
-      <c r="AF49" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AG49" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="AH49" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="AI49" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="AJ49" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="AK49" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="AL49" t="n">
-        <v>1.96</v>
-      </c>
-      <c r="AM49" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="AN49" t="n">
-        <v>2.48</v>
-      </c>
-      <c r="AO49" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="AP49" t="n">
-        <v>3.3</v>
-      </c>
       <c r="AQ49" t="n">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Italy Serie B</t>
+          <t>Spain Segunda División</t>
         </is>
       </c>
       <c r="B50" s="2" t="n">
@@ -7341,134 +7341,134 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Como</t>
+          <t>Racing Santander</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Modena</t>
+          <t>Real Oviedo</t>
         </is>
       </c>
       <c r="G50" t="n">
-        <v>2.7</v>
+        <v>3.25</v>
       </c>
       <c r="H50" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="I50" t="n">
-        <v>4.3</v>
+        <v>3.75</v>
       </c>
       <c r="J50" t="n">
-        <v>2.2</v>
+        <v>2.59</v>
       </c>
       <c r="K50" t="n">
-        <v>3.1</v>
+        <v>2.94</v>
       </c>
       <c r="L50" t="n">
-        <v>3.3</v>
+        <v>3.01</v>
       </c>
       <c r="M50" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="N50" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="O50" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="P50" t="n">
+        <v>7</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="R50" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="S50" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="T50" t="n">
         <v>1.48</v>
       </c>
-      <c r="N50" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="O50" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="P50" t="n">
-        <v>8.300000000000001</v>
-      </c>
-      <c r="Q50" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="R50" t="n">
-        <v>2.84</v>
-      </c>
-      <c r="S50" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="T50" t="n">
-        <v>1.68</v>
-      </c>
       <c r="U50" t="n">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="V50" t="n">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="W50" t="n">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="X50" t="n">
-        <v>1.35</v>
+        <v>1.3</v>
       </c>
       <c r="Y50" t="n">
-        <v>1.75</v>
+        <v>1.53</v>
       </c>
       <c r="Z50" t="n">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AA50" t="n">
-        <v>1.86</v>
+        <v>0.78</v>
       </c>
       <c r="AB50" t="n">
-        <v>1.39</v>
+        <v>1.33</v>
       </c>
       <c r="AC50" t="n">
-        <v>1.37</v>
+        <v>1</v>
       </c>
       <c r="AD50" t="n">
-        <v>2.76</v>
+        <v>2.33</v>
       </c>
       <c r="AE50" t="n">
-        <v>1.87</v>
+        <v>1.85</v>
       </c>
       <c r="AF50" t="n">
-        <v>8.9</v>
+        <v>8.6</v>
       </c>
       <c r="AG50" t="n">
-        <v>2.28</v>
+        <v>2.33</v>
       </c>
       <c r="AH50" t="n">
-        <v>1.23</v>
+        <v>1.34</v>
       </c>
       <c r="AI50" t="n">
-        <v>3.6</v>
+        <v>2.9</v>
       </c>
       <c r="AJ50" t="n">
-        <v>1.44</v>
+        <v>1.62</v>
       </c>
       <c r="AK50" t="n">
-        <v>2.5</v>
+        <v>2.05</v>
       </c>
       <c r="AL50" t="n">
-        <v>1.83</v>
+        <v>2.1</v>
       </c>
       <c r="AM50" t="n">
-        <v>1.98</v>
+        <v>1.61</v>
       </c>
       <c r="AN50" t="n">
-        <v>2.35</v>
+        <v>2.85</v>
       </c>
       <c r="AO50" t="n">
-        <v>1.5</v>
+        <v>1.34</v>
       </c>
       <c r="AP50" t="n">
-        <v>3.2</v>
+        <v>3.64</v>
       </c>
       <c r="AQ50" t="n">
-        <v>1.28</v>
+        <v>1.22</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Italy Serie B</t>
+          <t>Spain La Liga</t>
         </is>
       </c>
       <c r="B51" s="2" t="n">
@@ -7484,130 +7484,130 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Parma</t>
+          <t>Granada CF</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Athletic Club Bilbao</t>
         </is>
       </c>
       <c r="G51" t="n">
-        <v>2.86</v>
+        <v>4.75</v>
       </c>
       <c r="H51" t="n">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="I51" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="J51" t="n">
+        <v>4.32</v>
+      </c>
+      <c r="K51" t="n">
+        <v>3.82</v>
+      </c>
+      <c r="L51" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="M51" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="N51" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="O51" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="P51" t="n">
+        <v>15</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="R51" t="n">
         <v>4.2</v>
       </c>
-      <c r="J51" t="n">
+      <c r="S51" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="T51" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="U51" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="V51" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="W51" t="n">
         <v>2.15</v>
       </c>
-      <c r="K51" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="L51" t="n">
+      <c r="X51" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="Y51" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="Z51" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="AA51" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AB51" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AC51" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AD51" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AE51" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AF51" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AG51" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AH51" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AI51" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AJ51" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AK51" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="AL51" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="AM51" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AN51" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="AO51" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AP51" t="n">
         <v>3.3</v>
       </c>
-      <c r="M51" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="N51" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="O51" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="P51" t="n">
-        <v>8</v>
-      </c>
-      <c r="Q51" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="R51" t="n">
-        <v>3</v>
-      </c>
-      <c r="S51" t="n">
-        <v>1.94</v>
-      </c>
-      <c r="T51" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="U51" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="V51" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="W51" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="X51" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="Y51" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="Z51" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="AA51" t="n">
-        <v>2</v>
-      </c>
-      <c r="AB51" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="AC51" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="AD51" t="n">
-        <v>2.92</v>
-      </c>
-      <c r="AE51" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="AF51" t="n">
-        <v>9.300000000000001</v>
-      </c>
-      <c r="AG51" t="n">
-        <v>2.44</v>
-      </c>
-      <c r="AH51" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="AI51" t="n">
-        <v>4.25</v>
-      </c>
-      <c r="AJ51" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="AK51" t="n">
-        <v>2.95</v>
-      </c>
-      <c r="AL51" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="AM51" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="AN51" t="n">
-        <v>2</v>
-      </c>
-      <c r="AO51" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="AP51" t="n">
-        <v>2.7</v>
-      </c>
       <c r="AQ51" t="n">
-        <v>1.38</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Portugal Liga NOS</t>
+          <t>Switzerland Super League</t>
         </is>
       </c>
       <c r="B52" s="2" t="n">
@@ -7619,134 +7619,134 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Estrela Amadora</t>
+          <t>Yverdon Sport</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Boavista FC</t>
+          <t>Stade Lausanne-Ouchy</t>
         </is>
       </c>
       <c r="G52" t="n">
-        <v>0</v>
+        <v>2.8</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="I52" t="n">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="J52" t="n">
-        <v>2.5</v>
+        <v>2.45</v>
       </c>
       <c r="K52" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="L52" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="M52" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="N52" t="n">
+        <v>3</v>
+      </c>
+      <c r="O52" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="P52" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="R52" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="S52" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="T52" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="U52" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="V52" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="W52" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="X52" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="Y52" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="Z52" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AA52" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AB52" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AC52" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AD52" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="AE52" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AF52" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AG52" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AH52" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AI52" t="n">
+        <v>4.55</v>
+      </c>
+      <c r="AJ52" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AK52" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AL52" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AM52" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AN52" t="n">
+        <v>2</v>
+      </c>
+      <c r="AO52" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AP52" t="n">
         <v>2.7</v>
       </c>
-      <c r="M52" t="n">
-        <v>0</v>
-      </c>
-      <c r="N52" t="n">
-        <v>0</v>
-      </c>
-      <c r="O52" t="n">
-        <v>0</v>
-      </c>
-      <c r="P52" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q52" t="n">
-        <v>0</v>
-      </c>
-      <c r="R52" t="n">
-        <v>0</v>
-      </c>
-      <c r="S52" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="T52" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="U52" t="n">
-        <v>0</v>
-      </c>
-      <c r="V52" t="n">
-        <v>0</v>
-      </c>
-      <c r="W52" t="n">
-        <v>0</v>
-      </c>
-      <c r="X52" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y52" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z52" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA52" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="AB52" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="AC52" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="AD52" t="n">
-        <v>2.31</v>
-      </c>
-      <c r="AE52" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF52" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG52" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH52" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI52" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ52" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK52" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL52" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM52" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN52" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO52" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP52" t="n">
-        <v>0</v>
-      </c>
       <c r="AQ52" t="n">
-        <v>0</v>
+        <v>1.38</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Greece Super League</t>
+          <t>Switzerland Super League</t>
         </is>
       </c>
       <c r="B53" s="2" t="n">
@@ -7758,134 +7758,134 @@
         </is>
       </c>
       <c r="D53" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Panserraikos</t>
+          <t>Zürich</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Olympiakos Piraeus</t>
+          <t>Luzern</t>
         </is>
       </c>
       <c r="G53" t="n">
-        <v>8</v>
+        <v>2.4</v>
       </c>
       <c r="H53" t="n">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="I53" t="n">
-        <v>1.83</v>
+        <v>4</v>
       </c>
       <c r="J53" t="n">
-        <v>8.31</v>
+        <v>1.92</v>
       </c>
       <c r="K53" t="n">
-        <v>4.64</v>
+        <v>3.6</v>
       </c>
       <c r="L53" t="n">
-        <v>1.28</v>
+        <v>3.35</v>
       </c>
       <c r="M53" t="n">
-        <v>1.36</v>
+        <v>1.3</v>
       </c>
       <c r="N53" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="O53" t="n">
         <v>1.03</v>
       </c>
       <c r="P53" t="n">
-        <v>13</v>
+        <v>15.25</v>
       </c>
       <c r="Q53" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="R53" t="n">
+        <v>4.67</v>
+      </c>
+      <c r="S53" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="T53" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="U53" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="V53" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="W53" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X53" t="n">
         <v>1.25</v>
       </c>
-      <c r="R53" t="n">
-        <v>4</v>
-      </c>
-      <c r="S53" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="T53" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="U53" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="V53" t="n">
+      <c r="Y53" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="Z53" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="AA53" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="AB53" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AC53" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AD53" t="n">
+        <v>3.07</v>
+      </c>
+      <c r="AE53" t="n">
         <v>1.62</v>
       </c>
-      <c r="W53" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="X53" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="Y53" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="Z53" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="AA53" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="AB53" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="AC53" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="AD53" t="n">
-        <v>2.97</v>
-      </c>
-      <c r="AE53" t="n">
-        <v>4.91</v>
-      </c>
       <c r="AF53" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AG53" t="n">
-        <v>1.26</v>
+        <v>2.6</v>
       </c>
       <c r="AH53" t="n">
-        <v>1.43</v>
+        <v>1.15</v>
       </c>
       <c r="AI53" t="n">
-        <v>2.5</v>
+        <v>4.45</v>
       </c>
       <c r="AJ53" t="n">
-        <v>1.78</v>
+        <v>1.33</v>
       </c>
       <c r="AK53" t="n">
-        <v>1.85</v>
+        <v>2.95</v>
       </c>
       <c r="AL53" t="n">
-        <v>2.37</v>
+        <v>1.6</v>
       </c>
       <c r="AM53" t="n">
-        <v>1.49</v>
+        <v>2.15</v>
       </c>
       <c r="AN53" t="n">
-        <v>3.3</v>
+        <v>2</v>
       </c>
       <c r="AO53" t="n">
-        <v>1.26</v>
+        <v>1.66</v>
       </c>
       <c r="AP53" t="n">
-        <v>0</v>
+        <v>2.7</v>
       </c>
       <c r="AQ53" t="n">
-        <v>0</v>
+        <v>1.38</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Switzerland Super League</t>
+          <t>Portugal LigaPro</t>
         </is>
       </c>
       <c r="B54" s="2" t="n">
@@ -7897,134 +7897,134 @@
         </is>
       </c>
       <c r="D54" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Yverdon Sport</t>
+          <t>CS Marítimo</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Stade Lausanne-Ouchy</t>
+          <t>Vilaverdense</t>
         </is>
       </c>
       <c r="G54" t="n">
-        <v>2.8</v>
+        <v>2.06</v>
       </c>
       <c r="H54" t="n">
-        <v>2.25</v>
+        <v>2.41</v>
       </c>
       <c r="I54" t="n">
-        <v>3.3</v>
+        <v>6.59</v>
       </c>
       <c r="J54" t="n">
-        <v>2.28</v>
+        <v>1.42</v>
       </c>
       <c r="K54" t="n">
-        <v>3.62</v>
+        <v>4.2</v>
       </c>
       <c r="L54" t="n">
-        <v>2.92</v>
+        <v>5.9</v>
       </c>
       <c r="M54" t="n">
-        <v>1.33</v>
+        <v>1.38</v>
       </c>
       <c r="N54" t="n">
-        <v>3</v>
+        <v>3.12</v>
       </c>
       <c r="O54" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="P54" t="n">
-        <v>10</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="Q54" t="n">
-        <v>1.22</v>
+        <v>1.24</v>
       </c>
       <c r="R54" t="n">
-        <v>3.8</v>
+        <v>3.48</v>
       </c>
       <c r="S54" t="n">
-        <v>1.66</v>
+        <v>1.87</v>
       </c>
       <c r="T54" t="n">
-        <v>2.09</v>
+        <v>1.86</v>
       </c>
       <c r="U54" t="n">
-        <v>1.57</v>
+        <v>1.98</v>
       </c>
       <c r="V54" t="n">
-        <v>2.3</v>
+        <v>1.74</v>
       </c>
       <c r="W54" t="n">
-        <v>1.43</v>
+        <v>1.08</v>
       </c>
       <c r="X54" t="n">
-        <v>1.28</v>
+        <v>1.18</v>
       </c>
       <c r="Y54" t="n">
-        <v>1.58</v>
+        <v>2.61</v>
       </c>
       <c r="Z54" t="n">
-        <v>1.5</v>
+        <v>0.8</v>
       </c>
       <c r="AA54" t="n">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AB54" t="n">
-        <v>1.41</v>
+        <v>1.61</v>
       </c>
       <c r="AC54" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AD54" t="n">
-        <v>2.71</v>
+        <v>2.88</v>
       </c>
       <c r="AE54" t="n">
-        <v>2.05</v>
+        <v>0</v>
       </c>
       <c r="AF54" t="n">
-        <v>8.5</v>
+        <v>0</v>
       </c>
       <c r="AG54" t="n">
-        <v>1.91</v>
+        <v>0</v>
       </c>
       <c r="AH54" t="n">
-        <v>1.14</v>
+        <v>0</v>
       </c>
       <c r="AI54" t="n">
-        <v>4.55</v>
+        <v>0</v>
       </c>
       <c r="AJ54" t="n">
-        <v>1.33</v>
+        <v>0</v>
       </c>
       <c r="AK54" t="n">
-        <v>2.95</v>
+        <v>0</v>
       </c>
       <c r="AL54" t="n">
-        <v>1.6</v>
+        <v>0</v>
       </c>
       <c r="AM54" t="n">
-        <v>2.15</v>
+        <v>0</v>
       </c>
       <c r="AN54" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO54" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP54" t="n">
         <v>2</v>
       </c>
-      <c r="AO54" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="AP54" t="n">
-        <v>2.7</v>
-      </c>
       <c r="AQ54" t="n">
-        <v>1.38</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Switzerland Super League</t>
+          <t>Greece Super League</t>
         </is>
       </c>
       <c r="B55" s="2" t="n">
@@ -8036,134 +8036,134 @@
         </is>
       </c>
       <c r="D55" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Zürich</t>
+          <t>Panserraikos</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Luzern</t>
+          <t>Olympiakos Piraeus</t>
         </is>
       </c>
       <c r="G55" t="n">
+        <v>8</v>
+      </c>
+      <c r="H55" t="n">
         <v>2.4</v>
       </c>
-      <c r="H55" t="n">
-        <v>2.3</v>
-      </c>
       <c r="I55" t="n">
-        <v>4</v>
+        <v>1.83</v>
       </c>
       <c r="J55" t="n">
-        <v>1.87</v>
+        <v>8.31</v>
       </c>
       <c r="K55" t="n">
-        <v>3.6</v>
+        <v>4.64</v>
       </c>
       <c r="L55" t="n">
-        <v>3.6</v>
+        <v>1.28</v>
       </c>
       <c r="M55" t="n">
-        <v>1.3</v>
+        <v>1.36</v>
       </c>
       <c r="N55" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="O55" t="n">
         <v>1.03</v>
       </c>
       <c r="P55" t="n">
-        <v>15.25</v>
+        <v>13</v>
       </c>
       <c r="Q55" t="n">
-        <v>1.19</v>
+        <v>1.25</v>
       </c>
       <c r="R55" t="n">
-        <v>4.67</v>
+        <v>4</v>
       </c>
       <c r="S55" t="n">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="T55" t="n">
-        <v>2.15</v>
+        <v>1.95</v>
       </c>
       <c r="U55" t="n">
-        <v>1.57</v>
+        <v>2.2</v>
       </c>
       <c r="V55" t="n">
-        <v>2.25</v>
+        <v>1.62</v>
       </c>
       <c r="W55" t="n">
-        <v>1.3</v>
+        <v>3.25</v>
       </c>
       <c r="X55" t="n">
-        <v>1.25</v>
+        <v>1.14</v>
       </c>
       <c r="Y55" t="n">
-        <v>1.88</v>
+        <v>1.05</v>
       </c>
       <c r="Z55" t="n">
-        <v>2.13</v>
+        <v>2.5</v>
       </c>
       <c r="AA55" t="n">
-        <v>0.63</v>
+        <v>2.2</v>
       </c>
       <c r="AB55" t="n">
-        <v>1.59</v>
+        <v>1.43</v>
       </c>
       <c r="AC55" t="n">
-        <v>1.48</v>
+        <v>1.54</v>
       </c>
       <c r="AD55" t="n">
-        <v>3.07</v>
+        <v>2.97</v>
       </c>
       <c r="AE55" t="n">
-        <v>1.62</v>
+        <v>4.91</v>
       </c>
       <c r="AF55" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AG55" t="n">
-        <v>2.6</v>
+        <v>1.26</v>
       </c>
       <c r="AH55" t="n">
-        <v>1.15</v>
+        <v>1.43</v>
       </c>
       <c r="AI55" t="n">
-        <v>4.45</v>
+        <v>2.5</v>
       </c>
       <c r="AJ55" t="n">
-        <v>1.33</v>
+        <v>1.78</v>
       </c>
       <c r="AK55" t="n">
-        <v>2.95</v>
+        <v>1.85</v>
       </c>
       <c r="AL55" t="n">
-        <v>1.6</v>
+        <v>2.37</v>
       </c>
       <c r="AM55" t="n">
-        <v>2.15</v>
+        <v>1.49</v>
       </c>
       <c r="AN55" t="n">
-        <v>2</v>
+        <v>3.3</v>
       </c>
       <c r="AO55" t="n">
-        <v>1.66</v>
+        <v>1.26</v>
       </c>
       <c r="AP55" t="n">
-        <v>2.7</v>
+        <v>0</v>
       </c>
       <c r="AQ55" t="n">
-        <v>1.38</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Portugal LigaPro</t>
+          <t>Portugal Liga NOS</t>
         </is>
       </c>
       <c r="B56" s="2" t="n">
@@ -8179,85 +8179,85 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>CS Marítimo</t>
+          <t>Estrela Amadora</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Vilaverdense</t>
+          <t>Boavista FC</t>
         </is>
       </c>
       <c r="G56" t="n">
-        <v>2.06</v>
+        <v>0</v>
       </c>
       <c r="H56" t="n">
-        <v>2.41</v>
+        <v>0</v>
       </c>
       <c r="I56" t="n">
-        <v>6.59</v>
+        <v>0</v>
       </c>
       <c r="J56" t="n">
-        <v>1.43</v>
+        <v>2.57</v>
       </c>
       <c r="K56" t="n">
-        <v>4.2</v>
+        <v>3.45</v>
       </c>
       <c r="L56" t="n">
-        <v>6.75</v>
+        <v>2.67</v>
       </c>
       <c r="M56" t="n">
-        <v>1.38</v>
+        <v>0</v>
       </c>
       <c r="N56" t="n">
-        <v>3.12</v>
+        <v>0</v>
       </c>
       <c r="O56" t="n">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="P56" t="n">
-        <v>9.699999999999999</v>
+        <v>0</v>
       </c>
       <c r="Q56" t="n">
-        <v>1.24</v>
+        <v>0</v>
       </c>
       <c r="R56" t="n">
-        <v>3.48</v>
+        <v>0</v>
       </c>
       <c r="S56" t="n">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="T56" t="n">
-        <v>1.93</v>
+        <v>1.88</v>
       </c>
       <c r="U56" t="n">
-        <v>1.98</v>
+        <v>0</v>
       </c>
       <c r="V56" t="n">
-        <v>1.74</v>
+        <v>0</v>
       </c>
       <c r="W56" t="n">
-        <v>1.08</v>
+        <v>0</v>
       </c>
       <c r="X56" t="n">
-        <v>1.18</v>
+        <v>0</v>
       </c>
       <c r="Y56" t="n">
-        <v>2.61</v>
+        <v>0</v>
       </c>
       <c r="Z56" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AA56" t="n">
-        <v>0.67</v>
+        <v>1.4</v>
       </c>
       <c r="AB56" t="n">
-        <v>1.61</v>
+        <v>1.29</v>
       </c>
       <c r="AC56" t="n">
-        <v>1.27</v>
+        <v>1.02</v>
       </c>
       <c r="AD56" t="n">
-        <v>2.88</v>
+        <v>2.31</v>
       </c>
       <c r="AE56" t="n">
         <v>0</v>
@@ -8293,16 +8293,16 @@
         <v>0</v>
       </c>
       <c r="AP56" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AQ56" t="n">
-        <v>1.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Netherlands Eredivisie</t>
+          <t>Bulgaria First League</t>
         </is>
       </c>
       <c r="B57" s="2" t="n">
@@ -8314,134 +8314,134 @@
         </is>
       </c>
       <c r="D57" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Vitesse</t>
+          <t>CSKA Sofia</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Heracles</t>
+          <t>Ludogorets</t>
         </is>
       </c>
       <c r="G57" t="n">
+        <v>4</v>
+      </c>
+      <c r="H57" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="I57" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="J57" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="K57" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="L57" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="M57" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="N57" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="O57" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="P57" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="R57" t="n">
         <v>2.5</v>
       </c>
-      <c r="H57" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="I57" t="n">
-        <v>4</v>
-      </c>
-      <c r="J57" t="n">
+      <c r="S57" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="T57" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="U57" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V57" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="W57" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="X57" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="Y57" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="Z57" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="AA57" t="n">
         <v>2</v>
       </c>
-      <c r="K57" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="L57" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="M57" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="N57" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="O57" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="P57" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="Q57" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="R57" t="n">
-        <v>4.48</v>
-      </c>
-      <c r="S57" t="n">
-        <v>1.61</v>
-      </c>
-      <c r="T57" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="U57" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="V57" t="n">
+      <c r="AB57" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AC57" t="n">
         <v>2.25</v>
       </c>
-      <c r="W57" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="X57" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="Y57" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="Z57" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="AA57" t="n">
-        <v>0.71</v>
-      </c>
-      <c r="AB57" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="AC57" t="n">
-        <v>1.21</v>
-      </c>
       <c r="AD57" t="n">
-        <v>2.75</v>
+        <v>4.06</v>
       </c>
       <c r="AE57" t="n">
-        <v>1.61</v>
+        <v>0</v>
       </c>
       <c r="AF57" t="n">
-        <v>8.5</v>
+        <v>0</v>
       </c>
       <c r="AG57" t="n">
-        <v>2.7</v>
+        <v>0</v>
       </c>
       <c r="AH57" t="n">
-        <v>1.18</v>
+        <v>0</v>
       </c>
       <c r="AI57" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AJ57" t="n">
-        <v>1.33</v>
+        <v>0</v>
       </c>
       <c r="AK57" t="n">
-        <v>2.85</v>
+        <v>0</v>
       </c>
       <c r="AL57" t="n">
-        <v>1.58</v>
+        <v>0</v>
       </c>
       <c r="AM57" t="n">
-        <v>2.17</v>
+        <v>0</v>
       </c>
       <c r="AN57" t="n">
-        <v>1.94</v>
+        <v>0</v>
       </c>
       <c r="AO57" t="n">
-        <v>1.75</v>
+        <v>0</v>
       </c>
       <c r="AP57" t="n">
-        <v>2.45</v>
+        <v>0</v>
       </c>
       <c r="AQ57" t="n">
-        <v>1.45</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Bulgaria First League</t>
+          <t>Netherlands Eredivisie</t>
         </is>
       </c>
       <c r="B58" s="2" t="n">
@@ -8453,134 +8453,134 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>CSKA Sofia</t>
+          <t>Vitesse</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Ludogorets</t>
+          <t>Heracles</t>
         </is>
       </c>
       <c r="G58" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="H58" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="I58" t="n">
         <v>4</v>
       </c>
-      <c r="H58" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="I58" t="n">
-        <v>3.1</v>
-      </c>
       <c r="J58" t="n">
-        <v>3.05</v>
+        <v>1.91</v>
       </c>
       <c r="K58" t="n">
-        <v>3.15</v>
+        <v>3.35</v>
       </c>
       <c r="L58" t="n">
-        <v>2.3</v>
+        <v>3.96</v>
       </c>
       <c r="M58" t="n">
-        <v>1.53</v>
+        <v>1.33</v>
       </c>
       <c r="N58" t="n">
-        <v>2.38</v>
+        <v>3.25</v>
       </c>
       <c r="O58" t="n">
-        <v>1.09</v>
+        <v>1.03</v>
       </c>
       <c r="P58" t="n">
-        <v>6</v>
+        <v>14.5</v>
       </c>
       <c r="Q58" t="n">
-        <v>1.48</v>
+        <v>1.2</v>
       </c>
       <c r="R58" t="n">
-        <v>2.5</v>
+        <v>4.48</v>
       </c>
       <c r="S58" t="n">
-        <v>2.35</v>
+        <v>1.67</v>
       </c>
       <c r="T58" t="n">
-        <v>1.52</v>
+        <v>2.05</v>
       </c>
       <c r="U58" t="n">
-        <v>2.1</v>
+        <v>1.57</v>
       </c>
       <c r="V58" t="n">
-        <v>1.67</v>
+        <v>2.25</v>
       </c>
       <c r="W58" t="n">
-        <v>1.6</v>
+        <v>1.28</v>
       </c>
       <c r="X58" t="n">
-        <v>1.36</v>
+        <v>1.3</v>
       </c>
       <c r="Y58" t="n">
-        <v>1.35</v>
+        <v>1.78</v>
       </c>
       <c r="Z58" t="n">
-        <v>2.11</v>
+        <v>0.33</v>
       </c>
       <c r="AA58" t="n">
-        <v>2</v>
+        <v>0.71</v>
       </c>
       <c r="AB58" t="n">
-        <v>1.81</v>
+        <v>1.54</v>
       </c>
       <c r="AC58" t="n">
-        <v>2.25</v>
+        <v>1.21</v>
       </c>
       <c r="AD58" t="n">
-        <v>4.06</v>
+        <v>2.75</v>
       </c>
       <c r="AE58" t="n">
-        <v>0</v>
+        <v>1.61</v>
       </c>
       <c r="AF58" t="n">
-        <v>0</v>
+        <v>8.5</v>
       </c>
       <c r="AG58" t="n">
-        <v>0</v>
+        <v>2.7</v>
       </c>
       <c r="AH58" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="AI58" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AJ58" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="AK58" t="n">
-        <v>0</v>
+        <v>2.85</v>
       </c>
       <c r="AL58" t="n">
-        <v>0</v>
+        <v>1.58</v>
       </c>
       <c r="AM58" t="n">
-        <v>0</v>
+        <v>2.17</v>
       </c>
       <c r="AN58" t="n">
-        <v>0</v>
+        <v>1.94</v>
       </c>
       <c r="AO58" t="n">
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="AP58" t="n">
-        <v>0</v>
+        <v>2.45</v>
       </c>
       <c r="AQ58" t="n">
-        <v>0</v>
+        <v>1.45</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Serbia SuperLiga</t>
+          <t>Turkey Süper Lig</t>
         </is>
       </c>
       <c r="B59" s="2" t="n">
@@ -8592,128 +8592,128 @@
         </is>
       </c>
       <c r="D59" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>IMT Novi Beograd</t>
+          <t>Gazişehir Gaziantep</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Novi Pazar</t>
+          <t>Trabzonspor</t>
         </is>
       </c>
       <c r="G59" t="n">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="H59" t="n">
         <v>2.1</v>
       </c>
       <c r="I59" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="J59" t="n">
-        <v>2.5</v>
+        <v>3.38</v>
       </c>
       <c r="K59" t="n">
-        <v>3.3</v>
+        <v>3.52</v>
       </c>
       <c r="L59" t="n">
-        <v>2.63</v>
+        <v>2.11</v>
       </c>
       <c r="M59" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="N59" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="O59" t="n">
-        <v>1.06</v>
+        <v>1.03</v>
       </c>
       <c r="P59" t="n">
-        <v>8</v>
+        <v>10.65</v>
       </c>
       <c r="Q59" t="n">
         <v>1.29</v>
       </c>
       <c r="R59" t="n">
-        <v>3.5</v>
+        <v>3.44</v>
       </c>
       <c r="S59" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="T59" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="U59" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="V59" t="n">
+        <v>2</v>
+      </c>
+      <c r="W59" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="X59" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="Y59" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="Z59" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AA59" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AB59" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AC59" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AD59" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="AE59" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="AF59" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AG59" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AH59" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AI59" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AJ59" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AK59" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AL59" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AM59" t="n">
         <v>1.85</v>
       </c>
-      <c r="T59" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="U59" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="V59" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="W59" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="X59" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="Y59" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="Z59" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA59" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB59" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="AC59" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="AD59" t="n">
-        <v>2.65</v>
-      </c>
-      <c r="AE59" t="n">
-        <v>1.64</v>
-      </c>
-      <c r="AF59" t="n">
-        <v>8</v>
-      </c>
-      <c r="AG59" t="n">
-        <v>2.67</v>
-      </c>
-      <c r="AH59" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="AI59" t="n">
-        <v>3.48</v>
-      </c>
-      <c r="AJ59" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="AK59" t="n">
-        <v>2.48</v>
-      </c>
-      <c r="AL59" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="AM59" t="n">
-        <v>1.95</v>
-      </c>
       <c r="AN59" t="n">
-        <v>2.3</v>
+        <v>2.55</v>
       </c>
       <c r="AO59" t="n">
-        <v>1.52</v>
+        <v>1.42</v>
       </c>
       <c r="AP59" t="n">
-        <v>3.08</v>
+        <v>3.6</v>
       </c>
       <c r="AQ59" t="n">
-        <v>1.3</v>
+        <v>1.23</v>
       </c>
     </row>
     <row r="60">
@@ -8753,13 +8753,13 @@
         <v>6</v>
       </c>
       <c r="J60" t="n">
-        <v>1.47</v>
+        <v>1.43</v>
       </c>
       <c r="K60" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="L60" t="n">
-        <v>6.5</v>
+        <v>6.83</v>
       </c>
       <c r="M60" t="n">
         <v>1.3</v>
@@ -8780,10 +8780,10 @@
         <v>4.5</v>
       </c>
       <c r="S60" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="T60" t="n">
-        <v>2.23</v>
+        <v>2.16</v>
       </c>
       <c r="U60" t="n">
         <v>1.8</v>
@@ -8858,7 +8858,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Turkey Süper Lig</t>
+          <t>Serbia SuperLiga</t>
         </is>
       </c>
       <c r="B61" s="2" t="n">
@@ -8870,128 +8870,128 @@
         </is>
       </c>
       <c r="D61" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Gazişehir Gaziantep</t>
+          <t>IMT Novi Beograd</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Trabzonspor</t>
+          <t>Novi Pazar</t>
         </is>
       </c>
       <c r="G61" t="n">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="H61" t="n">
         <v>2.1</v>
       </c>
       <c r="I61" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="J61" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="K61" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="L61" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="M61" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="N61" t="n">
         <v>3</v>
       </c>
-      <c r="J61" t="n">
-        <v>3</v>
-      </c>
-      <c r="K61" t="n">
-        <v>3</v>
-      </c>
-      <c r="L61" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="M61" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="N61" t="n">
-        <v>2.75</v>
-      </c>
       <c r="O61" t="n">
-        <v>1.03</v>
+        <v>1.06</v>
       </c>
       <c r="P61" t="n">
-        <v>10.65</v>
+        <v>8</v>
       </c>
       <c r="Q61" t="n">
         <v>1.29</v>
       </c>
       <c r="R61" t="n">
-        <v>3.44</v>
+        <v>3.5</v>
       </c>
       <c r="S61" t="n">
-        <v>1.93</v>
+        <v>1.85</v>
       </c>
       <c r="T61" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="U61" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="V61" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="W61" t="n">
-        <v>1.51</v>
+        <v>1.44</v>
       </c>
       <c r="X61" t="n">
-        <v>1.27</v>
+        <v>1.3</v>
       </c>
       <c r="Y61" t="n">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="Z61" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AA61" t="n">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AB61" t="n">
-        <v>1.32</v>
+        <v>1.34</v>
       </c>
       <c r="AC61" t="n">
-        <v>1.12</v>
+        <v>1.31</v>
       </c>
       <c r="AD61" t="n">
-        <v>2.44</v>
+        <v>2.65</v>
       </c>
       <c r="AE61" t="n">
-        <v>2.14</v>
+        <v>1.64</v>
       </c>
       <c r="AF61" t="n">
-        <v>8.800000000000001</v>
+        <v>8</v>
       </c>
       <c r="AG61" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="AH61" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AI61" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="AJ61" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AK61" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="AL61" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AM61" t="n">
         <v>1.95</v>
       </c>
-      <c r="AH61" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="AI61" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="AJ61" t="n">
+      <c r="AN61" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AO61" t="n">
         <v>1.52</v>
       </c>
-      <c r="AK61" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="AL61" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="AM61" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="AN61" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="AO61" t="n">
-        <v>1.42</v>
-      </c>
       <c r="AP61" t="n">
-        <v>3.6</v>
+        <v>3.08</v>
       </c>
       <c r="AQ61" t="n">
-        <v>1.23</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="62">
@@ -9031,13 +9031,13 @@
         <v>4</v>
       </c>
       <c r="J62" t="n">
-        <v>1.87</v>
+        <v>1.82</v>
       </c>
       <c r="K62" t="n">
-        <v>3.7</v>
+        <v>4.12</v>
       </c>
       <c r="L62" t="n">
-        <v>4</v>
+        <v>3.82</v>
       </c>
       <c r="M62" t="n">
         <v>1.33</v>
@@ -9058,10 +9058,10 @@
         <v>4</v>
       </c>
       <c r="S62" t="n">
-        <v>1.67</v>
+        <v>1.69</v>
       </c>
       <c r="T62" t="n">
-        <v>2.15</v>
+        <v>2.17</v>
       </c>
       <c r="U62" t="n">
         <v>1.67</v>
@@ -9309,13 +9309,13 @@
         <v>3</v>
       </c>
       <c r="J64" t="n">
-        <v>2.88</v>
+        <v>2.89</v>
       </c>
       <c r="K64" t="n">
-        <v>3.3</v>
+        <v>3.46</v>
       </c>
       <c r="L64" t="n">
-        <v>2.3</v>
+        <v>2.36</v>
       </c>
       <c r="M64" t="n">
         <v>1.4</v>
@@ -9339,7 +9339,7 @@
         <v>1.87</v>
       </c>
       <c r="T64" t="n">
-        <v>1.84</v>
+        <v>1.92</v>
       </c>
       <c r="U64" t="n">
         <v>1.71</v>
@@ -9448,13 +9448,13 @@
         <v>3.4</v>
       </c>
       <c r="J65" t="n">
-        <v>2.3</v>
+        <v>2.21</v>
       </c>
       <c r="K65" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="L65" t="n">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="M65" t="n">
         <v>1.35</v>
@@ -9475,10 +9475,10 @@
         <v>3.75</v>
       </c>
       <c r="S65" t="n">
-        <v>1.8</v>
+        <v>1.72</v>
       </c>
       <c r="T65" t="n">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="U65" t="n">
         <v>1.63</v>
@@ -9726,13 +9726,13 @@
         <v>3.1</v>
       </c>
       <c r="J67" t="n">
-        <v>2.3</v>
+        <v>2.53</v>
       </c>
       <c r="K67" t="n">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="L67" t="n">
-        <v>2.87</v>
+        <v>2.53</v>
       </c>
       <c r="M67" t="n">
         <v>1.25</v>
@@ -9753,10 +9753,10 @@
         <v>5.6</v>
       </c>
       <c r="S67" t="n">
-        <v>1.57</v>
+        <v>1.69</v>
       </c>
       <c r="T67" t="n">
-        <v>2.3</v>
+        <v>2.18</v>
       </c>
       <c r="U67" t="n">
         <v>1.44</v>
@@ -9783,10 +9783,10 @@
         <v>2.08</v>
       </c>
       <c r="AC67" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="AD67" t="n">
-        <v>3.45</v>
+        <v>3.44</v>
       </c>
       <c r="AE67" t="n">
         <v>2.07</v>
@@ -9865,13 +9865,13 @@
         <v>4.1</v>
       </c>
       <c r="J68" t="n">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="K68" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="L68" t="n">
-        <v>3.85</v>
+        <v>3.19</v>
       </c>
       <c r="M68" t="n">
         <v>1.3</v>
@@ -10004,13 +10004,13 @@
         <v>7</v>
       </c>
       <c r="J69" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="K69" t="n">
-        <v>5</v>
+        <v>5.6</v>
       </c>
       <c r="L69" t="n">
-        <v>11</v>
+        <v>9.550000000000001</v>
       </c>
       <c r="M69" t="n">
         <v>1.28</v>
@@ -10031,10 +10031,10 @@
         <v>4.58</v>
       </c>
       <c r="S69" t="n">
-        <v>1.57</v>
+        <v>1.51</v>
       </c>
       <c r="T69" t="n">
-        <v>2.15</v>
+        <v>2.39</v>
       </c>
       <c r="U69" t="n">
         <v>1.95</v>
@@ -10143,10 +10143,10 @@
         <v>2.75</v>
       </c>
       <c r="J70" t="n">
-        <v>3.25</v>
+        <v>3.24</v>
       </c>
       <c r="K70" t="n">
-        <v>3.3</v>
+        <v>3.34</v>
       </c>
       <c r="L70" t="n">
         <v>2.25</v>
@@ -10170,10 +10170,10 @@
         <v>3</v>
       </c>
       <c r="S70" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="T70" t="n">
-        <v>1.75</v>
+        <v>1.87</v>
       </c>
       <c r="U70" t="n">
         <v>1.91</v>
@@ -10248,7 +10248,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Spain La Liga</t>
+          <t>Greece Super League</t>
         </is>
       </c>
       <c r="B71" s="2" t="n">
@@ -10260,134 +10260,134 @@
         </is>
       </c>
       <c r="D71" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Cádiz</t>
+          <t>Lamia</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>CA Osasuna</t>
+          <t>Volos NFC</t>
         </is>
       </c>
       <c r="G71" t="n">
-        <v>3.75</v>
+        <v>2.75</v>
       </c>
       <c r="H71" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="I71" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="J71" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="K71" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="L71" t="n">
+        <v>3.77</v>
+      </c>
+      <c r="M71" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="N71" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="O71" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="P71" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="R71" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="S71" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="T71" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="U71" t="n">
         <v>1.95</v>
       </c>
-      <c r="I71" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="J71" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="K71" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="L71" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="M71" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="N71" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="O71" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="P71" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="Q71" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="R71" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="S71" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="T71" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="U71" t="n">
-        <v>2</v>
-      </c>
       <c r="V71" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="W71" t="n">
-        <v>1.51</v>
+        <v>1.28</v>
       </c>
       <c r="X71" t="n">
-        <v>1.35</v>
+        <v>1.3</v>
       </c>
       <c r="Y71" t="n">
-        <v>1.39</v>
+        <v>1.72</v>
       </c>
       <c r="Z71" t="n">
-        <v>1.29</v>
+        <v>1.83</v>
       </c>
       <c r="AA71" t="n">
-        <v>1.29</v>
+        <v>0.5</v>
       </c>
       <c r="AB71" t="n">
-        <v>1.23</v>
+        <v>1.2</v>
       </c>
       <c r="AC71" t="n">
-        <v>1.17</v>
+        <v>0.95</v>
       </c>
       <c r="AD71" t="n">
-        <v>2.4</v>
+        <v>2.15</v>
       </c>
       <c r="AE71" t="n">
-        <v>1.9</v>
+        <v>0</v>
       </c>
       <c r="AF71" t="n">
-        <v>7.5</v>
+        <v>0</v>
       </c>
       <c r="AG71" t="n">
-        <v>2.2</v>
+        <v>0</v>
       </c>
       <c r="AH71" t="n">
-        <v>1.36</v>
+        <v>1.43</v>
       </c>
       <c r="AI71" t="n">
-        <v>2.7</v>
+        <v>2.55</v>
       </c>
       <c r="AJ71" t="n">
-        <v>1.66</v>
+        <v>1.78</v>
       </c>
       <c r="AK71" t="n">
-        <v>2.06</v>
+        <v>1.85</v>
       </c>
       <c r="AL71" t="n">
-        <v>2.08</v>
+        <v>2.37</v>
       </c>
       <c r="AM71" t="n">
-        <v>1.63</v>
+        <v>1.49</v>
       </c>
       <c r="AN71" t="n">
-        <v>2.7</v>
+        <v>3.3</v>
       </c>
       <c r="AO71" t="n">
-        <v>1.37</v>
+        <v>1.26</v>
       </c>
       <c r="AP71" t="n">
-        <v>3.65</v>
+        <v>0</v>
       </c>
       <c r="AQ71" t="n">
-        <v>1.21</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Greece Super League</t>
+          <t>Spain Segunda División</t>
         </is>
       </c>
       <c r="B72" s="2" t="n">
@@ -10399,134 +10399,134 @@
         </is>
       </c>
       <c r="D72" t="n">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>Lamia</t>
+          <t>SD Eibar</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Volos NFC</t>
+          <t>FC Andorra</t>
         </is>
       </c>
       <c r="G72" t="n">
-        <v>2.75</v>
+        <v>2.38</v>
       </c>
       <c r="H72" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="I72" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="J72" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="K72" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="L72" t="n">
+        <v>4.98</v>
+      </c>
+      <c r="M72" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="N72" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="O72" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="P72" t="n">
+        <v>8</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="R72" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="S72" t="n">
         <v>2.05</v>
       </c>
-      <c r="I72" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="J72" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="K72" t="n">
-        <v>3.04</v>
-      </c>
-      <c r="L72" t="n">
-        <v>3.77</v>
-      </c>
-      <c r="M72" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="N72" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="O72" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="P72" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Q72" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="R72" t="n">
-        <v>2.95</v>
-      </c>
-      <c r="S72" t="n">
-        <v>2.1</v>
-      </c>
       <c r="T72" t="n">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="U72" t="n">
+        <v>2</v>
+      </c>
+      <c r="V72" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="W72" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="X72" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="Y72" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="Z72" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="AA72" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AB72" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AC72" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AD72" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="AE72" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AF72" t="n">
+        <v>9</v>
+      </c>
+      <c r="AG72" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="AH72" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AI72" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AJ72" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AK72" t="n">
         <v>1.95</v>
       </c>
-      <c r="V72" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="W72" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="X72" t="n">
+      <c r="AL72" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AM72" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AN72" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AO72" t="n">
         <v>1.3</v>
       </c>
-      <c r="Y72" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="Z72" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="AA72" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="AB72" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="AC72" t="n">
-        <v>0.95</v>
-      </c>
-      <c r="AD72" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="AE72" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF72" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG72" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH72" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="AI72" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="AJ72" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="AK72" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="AL72" t="n">
-        <v>2.37</v>
-      </c>
-      <c r="AM72" t="n">
-        <v>1.49</v>
-      </c>
-      <c r="AN72" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="AO72" t="n">
-        <v>1.26</v>
-      </c>
       <c r="AP72" t="n">
-        <v>0</v>
+        <v>3.65</v>
       </c>
       <c r="AQ72" t="n">
-        <v>0</v>
+        <v>1.22</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Spain Segunda División</t>
+          <t>Belgium Pro League</t>
         </is>
       </c>
       <c r="B73" s="2" t="n">
@@ -10538,134 +10538,134 @@
         </is>
       </c>
       <c r="D73" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>Leganés</t>
+          <t>RSC Anderlecht</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>CD Eldense</t>
+          <t>Standard Liège</t>
         </is>
       </c>
       <c r="G73" t="n">
-        <v>2.6</v>
+        <v>1.85</v>
       </c>
       <c r="H73" t="n">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="I73" t="n">
         <v>5.5</v>
       </c>
       <c r="J73" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="K73" t="n">
+        <v>4.52</v>
+      </c>
+      <c r="L73" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="M73" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="N73" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="O73" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="P73" t="n">
+        <v>11</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="R73" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="S73" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="T73" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="U73" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="V73" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="W73" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="X73" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="Y73" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="Z73" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="AA73" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB73" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AC73" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AD73" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="AE73" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AF73" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AG73" t="n">
+        <v>4</v>
+      </c>
+      <c r="AH73" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AI73" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AJ73" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AK73" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AL73" t="n">
         <v>1.83</v>
       </c>
-      <c r="K73" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="L73" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="M73" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="N73" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="O73" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="P73" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="Q73" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="R73" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="S73" t="n">
-        <v>2.37</v>
-      </c>
-      <c r="T73" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="U73" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="V73" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="W73" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="X73" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="Y73" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="Z73" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="AA73" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="AB73" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="AC73" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="AD73" t="n">
-        <v>2.65</v>
-      </c>
-      <c r="AE73" t="n">
-        <v>1.61</v>
-      </c>
-      <c r="AF73" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="AG73" t="n">
-        <v>2.85</v>
-      </c>
-      <c r="AH73" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="AI73" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="AJ73" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="AK73" t="n">
-        <v>2</v>
-      </c>
-      <c r="AL73" t="n">
-        <v>2.37</v>
-      </c>
       <c r="AM73" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AN73" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AO73" t="n">
         <v>1.49</v>
       </c>
-      <c r="AN73" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="AO73" t="n">
-        <v>1.26</v>
-      </c>
       <c r="AP73" t="n">
-        <v>4.2</v>
+        <v>3.25</v>
       </c>
       <c r="AQ73" t="n">
-        <v>1.17</v>
+        <v>1.28</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Belgium Pro League</t>
+          <t>Spain La Liga</t>
         </is>
       </c>
       <c r="B74" s="2" t="n">
@@ -10677,128 +10677,128 @@
         </is>
       </c>
       <c r="D74" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>RSC Anderlecht</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Standard Liège</t>
+          <t>CA Osasuna</t>
         </is>
       </c>
       <c r="G74" t="n">
-        <v>1.85</v>
+        <v>3.75</v>
       </c>
       <c r="H74" t="n">
-        <v>2.5</v>
+        <v>1.95</v>
       </c>
       <c r="I74" t="n">
-        <v>5.5</v>
+        <v>3.4</v>
       </c>
       <c r="J74" t="n">
-        <v>1.5</v>
+        <v>2.85</v>
       </c>
       <c r="K74" t="n">
-        <v>4</v>
+        <v>3.14</v>
       </c>
       <c r="L74" t="n">
-        <v>5.5</v>
+        <v>2.61</v>
       </c>
       <c r="M74" t="n">
-        <v>1.3</v>
+        <v>1.53</v>
       </c>
       <c r="N74" t="n">
-        <v>3.4</v>
+        <v>2.38</v>
       </c>
       <c r="O74" t="n">
-        <v>1.03</v>
+        <v>1.09</v>
       </c>
       <c r="P74" t="n">
-        <v>11</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="Q74" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="R74" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="S74" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="T74" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="U74" t="n">
+        <v>2</v>
+      </c>
+      <c r="V74" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="W74" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="X74" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="Y74" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="Z74" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AA74" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AB74" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AC74" t="n">
         <v>1.17</v>
       </c>
-      <c r="R74" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="S74" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="T74" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="U74" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="V74" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="W74" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="X74" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="Y74" t="n">
+      <c r="AD74" t="n">
         <v>2.4</v>
       </c>
-      <c r="Z74" t="n">
-        <v>2.71</v>
-      </c>
-      <c r="AA74" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB74" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="AC74" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="AD74" t="n">
-        <v>2.97</v>
-      </c>
       <c r="AE74" t="n">
-        <v>1.33</v>
+        <v>1.9</v>
       </c>
       <c r="AF74" t="n">
-        <v>9.5</v>
+        <v>7.5</v>
       </c>
       <c r="AG74" t="n">
-        <v>4</v>
+        <v>2.2</v>
       </c>
       <c r="AH74" t="n">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AI74" t="n">
-        <v>3.6</v>
+        <v>2.7</v>
       </c>
       <c r="AJ74" t="n">
-        <v>1.44</v>
+        <v>1.66</v>
       </c>
       <c r="AK74" t="n">
-        <v>2.5</v>
+        <v>2.06</v>
       </c>
       <c r="AL74" t="n">
-        <v>1.83</v>
+        <v>2.08</v>
       </c>
       <c r="AM74" t="n">
-        <v>1.98</v>
+        <v>1.63</v>
       </c>
       <c r="AN74" t="n">
-        <v>2.35</v>
+        <v>2.7</v>
       </c>
       <c r="AO74" t="n">
-        <v>1.49</v>
+        <v>1.37</v>
       </c>
       <c r="AP74" t="n">
-        <v>3.25</v>
+        <v>3.65</v>
       </c>
       <c r="AQ74" t="n">
-        <v>1.28</v>
+        <v>1.21</v>
       </c>
     </row>
     <row r="75">
@@ -10820,61 +10820,61 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>SD Eibar</t>
+          <t>Leganés</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>FC Andorra</t>
+          <t>CD Eldense</t>
         </is>
       </c>
       <c r="G75" t="n">
-        <v>2.38</v>
+        <v>2.6</v>
       </c>
       <c r="H75" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="I75" t="n">
         <v>5.5</v>
       </c>
       <c r="J75" t="n">
-        <v>1.67</v>
+        <v>1.84</v>
       </c>
       <c r="K75" t="n">
-        <v>3.4</v>
+        <v>3.34</v>
       </c>
       <c r="L75" t="n">
-        <v>5.2</v>
+        <v>4.65</v>
       </c>
       <c r="M75" t="n">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="N75" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="O75" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="P75" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="R75" t="n">
         <v>2.63</v>
       </c>
-      <c r="O75" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="P75" t="n">
-        <v>8</v>
-      </c>
-      <c r="Q75" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="R75" t="n">
-        <v>2.9</v>
-      </c>
       <c r="S75" t="n">
-        <v>2.1</v>
+        <v>2.48</v>
       </c>
       <c r="T75" t="n">
-        <v>1.61</v>
+        <v>1.53</v>
       </c>
       <c r="U75" t="n">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="V75" t="n">
-        <v>1.73</v>
+        <v>1.57</v>
       </c>
       <c r="W75" t="n">
         <v>1.2</v>
@@ -10883,61 +10883,61 @@
         <v>1.29</v>
       </c>
       <c r="Y75" t="n">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="Z75" t="n">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AA75" t="n">
-        <v>0.5600000000000001</v>
+        <v>1.22</v>
       </c>
       <c r="AB75" t="n">
-        <v>1.67</v>
+        <v>1.47</v>
       </c>
       <c r="AC75" t="n">
-        <v>1.41</v>
+        <v>1.18</v>
       </c>
       <c r="AD75" t="n">
-        <v>3.08</v>
+        <v>2.65</v>
       </c>
       <c r="AE75" t="n">
-        <v>1.58</v>
+        <v>1.61</v>
       </c>
       <c r="AF75" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AG75" t="n">
-        <v>2.93</v>
+        <v>2.85</v>
       </c>
       <c r="AH75" t="n">
-        <v>1.38</v>
+        <v>1.43</v>
       </c>
       <c r="AI75" t="n">
-        <v>2.7</v>
+        <v>2.5</v>
       </c>
       <c r="AJ75" t="n">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="AK75" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="AL75" t="n">
-        <v>2.2</v>
+        <v>2.37</v>
       </c>
       <c r="AM75" t="n">
-        <v>1.55</v>
+        <v>1.49</v>
       </c>
       <c r="AN75" t="n">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="AO75" t="n">
-        <v>1.3</v>
+        <v>1.26</v>
       </c>
       <c r="AP75" t="n">
-        <v>3.65</v>
+        <v>4.2</v>
       </c>
       <c r="AQ75" t="n">
-        <v>1.22</v>
+        <v>1.17</v>
       </c>
     </row>
     <row r="76">
@@ -10977,13 +10977,13 @@
         <v>3.4</v>
       </c>
       <c r="J76" t="n">
-        <v>2.7</v>
+        <v>2.55</v>
       </c>
       <c r="K76" t="n">
         <v>3</v>
       </c>
       <c r="L76" t="n">
-        <v>2.7</v>
+        <v>2.85</v>
       </c>
       <c r="M76" t="n">
         <v>1.5</v>
@@ -11004,10 +11004,10 @@
         <v>2.9</v>
       </c>
       <c r="S76" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="T76" t="n">
-        <v>1.58</v>
+        <v>1.57</v>
       </c>
       <c r="U76" t="n">
         <v>1.83</v>
@@ -11116,13 +11116,13 @@
         <v>0</v>
       </c>
       <c r="J77" t="n">
-        <v>2.25</v>
+        <v>2.18</v>
       </c>
       <c r="K77" t="n">
-        <v>3.2</v>
+        <v>3.36</v>
       </c>
       <c r="L77" t="n">
-        <v>3.25</v>
+        <v>3.34</v>
       </c>
       <c r="M77" t="n">
         <v>0</v>
@@ -11255,13 +11255,13 @@
         <v>2</v>
       </c>
       <c r="J78" t="n">
-        <v>4.6</v>
+        <v>5.1</v>
       </c>
       <c r="K78" t="n">
-        <v>3.7</v>
+        <v>4.14</v>
       </c>
       <c r="L78" t="n">
-        <v>1.6</v>
+        <v>1.63</v>
       </c>
       <c r="M78" t="n">
         <v>1.29</v>
@@ -11282,10 +11282,10 @@
         <v>4</v>
       </c>
       <c r="S78" t="n">
-        <v>1.61</v>
+        <v>1.65</v>
       </c>
       <c r="T78" t="n">
-        <v>2.05</v>
+        <v>2.25</v>
       </c>
       <c r="U78" t="n">
         <v>1.71</v>
@@ -11533,13 +11533,13 @@
         <v>2.4</v>
       </c>
       <c r="J80" t="n">
-        <v>4.4</v>
+        <v>3.94</v>
       </c>
       <c r="K80" t="n">
-        <v>3.8</v>
+        <v>3.74</v>
       </c>
       <c r="L80" t="n">
-        <v>1.75</v>
+        <v>1.88</v>
       </c>
       <c r="M80" t="n">
         <v>1.36</v>
@@ -11560,10 +11560,10 @@
         <v>3.75</v>
       </c>
       <c r="S80" t="n">
-        <v>1.61</v>
+        <v>1.69</v>
       </c>
       <c r="T80" t="n">
-        <v>2.15</v>
+        <v>2.17</v>
       </c>
       <c r="U80" t="n">
         <v>1.8</v>
@@ -11672,13 +11672,13 @@
         <v>4.33</v>
       </c>
       <c r="J81" t="n">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="K81" t="n">
-        <v>3.25</v>
+        <v>3.34</v>
       </c>
       <c r="L81" t="n">
-        <v>3.7</v>
+        <v>4.12</v>
       </c>
       <c r="M81" t="n">
         <v>1.44</v>
@@ -11699,10 +11699,10 @@
         <v>2.9</v>
       </c>
       <c r="S81" t="n">
-        <v>2.1</v>
+        <v>2.01</v>
       </c>
       <c r="T81" t="n">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="U81" t="n">
         <v>1.95</v>
@@ -11777,7 +11777,7 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Spain La Liga</t>
+          <t>Spain Segunda División</t>
         </is>
       </c>
       <c r="B82" s="2" t="n">
@@ -11789,134 +11789,134 @@
         </is>
       </c>
       <c r="D82" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>FC Barcelona</t>
+          <t>SD Huesca</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Girona FC</t>
+          <t>Racing Club de Ferrol</t>
         </is>
       </c>
       <c r="G82" t="n">
-        <v>2</v>
+        <v>3.2</v>
       </c>
       <c r="H82" t="n">
-        <v>2.6</v>
+        <v>1.83</v>
       </c>
       <c r="I82" t="n">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
       <c r="J82" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="K82" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="L82" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="M82" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="N82" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="O82" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="P82" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q82" t="n">
         <v>1.57</v>
       </c>
-      <c r="K82" t="n">
-        <v>4.25</v>
-      </c>
-      <c r="L82" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="M82" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="N82" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="O82" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="P82" t="n">
-        <v>21</v>
-      </c>
-      <c r="Q82" t="n">
-        <v>1.15</v>
-      </c>
       <c r="R82" t="n">
-        <v>5.5</v>
+        <v>2.25</v>
       </c>
       <c r="S82" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="T82" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="U82" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="V82" t="n">
         <v>1.53</v>
       </c>
-      <c r="T82" t="n">
-        <v>2.45</v>
-      </c>
-      <c r="U82" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="V82" t="n">
-        <v>2.2</v>
-      </c>
       <c r="W82" t="n">
-        <v>1.15</v>
+        <v>1.3</v>
       </c>
       <c r="X82" t="n">
-        <v>1.2</v>
+        <v>1.33</v>
       </c>
       <c r="Y82" t="n">
-        <v>2.45</v>
+        <v>1.6</v>
       </c>
       <c r="Z82" t="n">
-        <v>2.63</v>
+        <v>0.44</v>
       </c>
       <c r="AA82" t="n">
-        <v>2.71</v>
+        <v>1.33</v>
       </c>
       <c r="AB82" t="n">
-        <v>1.77</v>
+        <v>1.17</v>
       </c>
       <c r="AC82" t="n">
-        <v>1.44</v>
+        <v>1</v>
       </c>
       <c r="AD82" t="n">
-        <v>3.21</v>
+        <v>2.17</v>
       </c>
       <c r="AE82" t="n">
-        <v>1.4</v>
+        <v>1.72</v>
       </c>
       <c r="AF82" t="n">
         <v>8.5</v>
       </c>
       <c r="AG82" t="n">
-        <v>3.65</v>
+        <v>2.59</v>
       </c>
       <c r="AH82" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AI82" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AJ82" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AK82" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AL82" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AM82" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AN82" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AO82" t="n">
         <v>1.3</v>
       </c>
-      <c r="AI82" t="n">
-        <v>2.95</v>
-      </c>
-      <c r="AJ82" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="AK82" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="AL82" t="n">
-        <v>1.96</v>
-      </c>
-      <c r="AM82" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="AN82" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="AO82" t="n">
-        <v>1.43</v>
-      </c>
       <c r="AP82" t="n">
-        <v>3.3</v>
+        <v>4.7</v>
       </c>
       <c r="AQ82" t="n">
-        <v>1.24</v>
+        <v>1.14</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Spain Segunda División</t>
+          <t>Spain La Liga</t>
         </is>
       </c>
       <c r="B83" s="2" t="n">
@@ -11928,128 +11928,128 @@
         </is>
       </c>
       <c r="D83" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>SD Huesca</t>
+          <t>FC Barcelona</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>Racing Club de Ferrol</t>
+          <t>Girona FC</t>
         </is>
       </c>
       <c r="G83" t="n">
-        <v>3.2</v>
+        <v>2</v>
       </c>
       <c r="H83" t="n">
-        <v>1.83</v>
+        <v>2.6</v>
       </c>
       <c r="I83" t="n">
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
       <c r="J83" t="n">
-        <v>2.35</v>
+        <v>1.53</v>
       </c>
       <c r="K83" t="n">
-        <v>2.8</v>
+        <v>4.92</v>
       </c>
       <c r="L83" t="n">
-        <v>3.25</v>
+        <v>5.1</v>
       </c>
       <c r="M83" t="n">
-        <v>1.67</v>
+        <v>1.25</v>
       </c>
       <c r="N83" t="n">
-        <v>2.1</v>
+        <v>3.75</v>
       </c>
       <c r="O83" t="n">
-        <v>1.13</v>
+        <v>1.03</v>
       </c>
       <c r="P83" t="n">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="Q83" t="n">
-        <v>1.53</v>
+        <v>1.15</v>
       </c>
       <c r="R83" t="n">
-        <v>2.25</v>
+        <v>5.5</v>
       </c>
       <c r="S83" t="n">
-        <v>2.75</v>
+        <v>1.46</v>
       </c>
       <c r="T83" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="U83" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="V83" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="W83" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="X83" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="Y83" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="Z83" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AA83" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="AB83" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AC83" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AD83" t="n">
+        <v>3.21</v>
+      </c>
+      <c r="AE83" t="n">
         <v>1.4</v>
-      </c>
-      <c r="U83" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="V83" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="W83" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="X83" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="Y83" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="Z83" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="AA83" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="AB83" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="AC83" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD83" t="n">
-        <v>2.17</v>
-      </c>
-      <c r="AE83" t="n">
-        <v>1.72</v>
       </c>
       <c r="AF83" t="n">
         <v>8.5</v>
       </c>
       <c r="AG83" t="n">
-        <v>2.59</v>
+        <v>3.65</v>
       </c>
       <c r="AH83" t="n">
-        <v>1.38</v>
+        <v>1.3</v>
       </c>
       <c r="AI83" t="n">
-        <v>2.7</v>
+        <v>2.95</v>
       </c>
       <c r="AJ83" t="n">
-        <v>1.7</v>
+        <v>1.58</v>
       </c>
       <c r="AK83" t="n">
-        <v>1.95</v>
+        <v>2.18</v>
       </c>
       <c r="AL83" t="n">
-        <v>2.2</v>
+        <v>1.96</v>
       </c>
       <c r="AM83" t="n">
-        <v>1.55</v>
+        <v>1.73</v>
       </c>
       <c r="AN83" t="n">
-        <v>3.1</v>
+        <v>2.5</v>
       </c>
       <c r="AO83" t="n">
-        <v>1.3</v>
+        <v>1.43</v>
       </c>
       <c r="AP83" t="n">
-        <v>4.7</v>
+        <v>3.3</v>
       </c>
       <c r="AQ83" t="n">
-        <v>1.14</v>
+        <v>1.24</v>
       </c>
     </row>
     <row r="84">
@@ -12089,13 +12089,13 @@
         <v>0</v>
       </c>
       <c r="J84" t="n">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="K84" t="n">
-        <v>3.65</v>
+        <v>3.64</v>
       </c>
       <c r="L84" t="n">
-        <v>3.7</v>
+        <v>3.44</v>
       </c>
       <c r="M84" t="n">
         <v>0</v>
